--- a/Screens/Spain.xlsx
+++ b/Screens/Spain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance_Shared/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1021" documentId="8_{DACE1CD8-BFAD-45DC-B788-5EF46346D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0596C547-E380-45AA-8F0C-9CF5618757C4}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="8_{DACE1CD8-BFAD-45DC-B788-5EF46346D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A82EDD-CEEA-47D3-9832-79450373BBFF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB8188F-5378-4836-AC5C-A12794E7FF25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AFB8188F-5378-4836-AC5C-A12794E7FF25}"/>
   </bookViews>
   <sheets>
     <sheet name="mainn" sheetId="3" r:id="rId1"/>
@@ -2184,7 +2184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1084">
   <si>
     <t>Last</t>
   </si>
@@ -5409,6 +5409,33 @@
   </si>
   <si>
     <t>ACS Actividades de Const. Y Servicios S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Good recent GR / Low multiples/ Concerns over Guidance</t>
+  </si>
+  <si>
+    <t>Top Line GR and FCF / MOAT??/ Fairly Valued</t>
+  </si>
+  <si>
+    <t>Bom FCF/ Low Margin/ Sector Terminality</t>
+  </si>
+  <si>
+    <t>Boa growth/ Farily Valued</t>
+  </si>
+  <si>
+    <t>Growing FCF/ Expensive</t>
+  </si>
+  <si>
+    <t>Nice GR / FCF Growth/ Low MOAT</t>
+  </si>
+  <si>
+    <t>Nice GR/ Quite expensive/ Small Cap</t>
+  </si>
+  <si>
+    <t>Nice GR / Good Financials/ Diversified</t>
   </si>
 </sst>
 </file>
@@ -5474,7 +5501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5496,17 +5523,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5516,6 +5533,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8689,9 +8707,9 @@
     <v>A Bradespar S.A. é uma holding brasileira que atua sobretudo na indústria siderúrgica. A principal atividade da empresa é participar em outras empresas como sócia ou acionista. Através de sua subsidiária indireta VALE S.A., a empresa atua na extração de minério de ferro, manganês e ferroligas; produção de pelotas; fabricação de minerais não-ferrosos; produção de potassa, fosfato e nitrogênio; e serviços de logística. Além disso, através de sua subsidiária indireta CPFL ENERGIA S.A., a empresa atua na distribuição, geração e comercialização de energia elétrica no Brasil.</v>
     <v>BVMF</v>
     <v>21.6</v>
-    <v>46057.90289351852</v>
+    <v>46057.947916666664</v>
     <v>174</v>
-    <v>3930000</v>
+    <v>4066410</v>
     <v>BRL</v>
     <v>Bradespar S.A</v>
     <v>Bradespar S.A</v>
@@ -23872,33 +23890,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782C3745-C198-4E21-BC08-37C416618DDC}">
-  <dimension ref="A2:O212"/>
+  <dimension ref="A2:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G60" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7734375" customWidth="1"/>
-    <col min="3" max="3" width="26.96875" customWidth="1"/>
-    <col min="4" max="5" width="33.09765625" customWidth="1"/>
-    <col min="6" max="6" width="38.4921875" customWidth="1"/>
-    <col min="7" max="7" width="21.57421875" customWidth="1"/>
-    <col min="8" max="8" width="15.93359375" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="19.4921875" customWidth="1"/>
-    <col min="11" max="11" width="19.61328125" customWidth="1"/>
-    <col min="12" max="12" width="14.09765625" customWidth="1"/>
-    <col min="13" max="13" width="15.8125" customWidth="1"/>
-    <col min="14" max="14" width="11.27734375" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="5" width="33.125" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1072</v>
       </c>
@@ -23917,7 +23935,7 @@
       <c r="F2" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>1071</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -23945,7 +23963,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -23966,7 +23984,7 @@
         <f t="array" aca="1" ref="F3" ca="1">+_FV(D3,"Setor")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>46057</v>
       </c>
       <c r="H3" s="3">
@@ -23977,7 +23995,7 @@
         <v>56.6</v>
       </c>
       <c r="J3" s="6">
-        <f ca="1">+I3/H3-1</f>
+        <f t="shared" ref="J3:J66" ca="1" si="0">+I3/H3-1</f>
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -23996,7 +24014,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>322</v>
       </c>
@@ -24007,11 +24025,11 @@
         <f t="array" aca="1" ref="E4" ca="1">+_FV(D4,"Símbolo do ticker",TRUE)</f>
         <v>SAN</v>
       </c>
-      <c r="F4" s="10" t="str" cm="1">
+      <c r="F4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">+_FV(D4,"Setor")</f>
         <v>Banking Services</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>46057</v>
       </c>
       <c r="H4" s="4">
@@ -24022,7 +24040,7 @@
         <v>10.7</v>
       </c>
       <c r="J4" s="8">
-        <f ca="1">+I4/H4-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -24041,7 +24059,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>327</v>
       </c>
@@ -24052,11 +24070,11 @@
         <f t="array" aca="1" ref="E5" ca="1">+_FV(D5,"Símbolo do ticker",TRUE)</f>
         <v>AIR</v>
       </c>
-      <c r="F5" s="10" t="str" cm="1">
+      <c r="F5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">+_FV(D5,"Setor")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>46057</v>
       </c>
       <c r="H5" s="4">
@@ -24067,7 +24085,7 @@
         <v>188.62</v>
       </c>
       <c r="J5" s="8">
-        <f ca="1">+I5/H5-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -24086,7 +24104,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>332</v>
       </c>
@@ -24097,11 +24115,11 @@
         <f t="array" aca="1" ref="E6" ca="1">+_FV(D6,"Símbolo do ticker",TRUE)</f>
         <v>IBE</v>
       </c>
-      <c r="F6" s="10" t="str" cm="1">
+      <c r="F6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">+_FV(D6,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>46057</v>
       </c>
       <c r="H6" s="4">
@@ -24112,7 +24130,7 @@
         <v>19.135000000000002</v>
       </c>
       <c r="J6" s="8">
-        <f ca="1">+I6/H6-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -24131,7 +24149,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>338</v>
       </c>
@@ -24142,11 +24160,11 @@
         <f t="array" aca="1" ref="E7" ca="1">+_FV(D7,"Símbolo do ticker",TRUE)</f>
         <v>CABK</v>
       </c>
-      <c r="F7" s="10" t="str" cm="1">
+      <c r="F7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">+_FV(D7,"Setor")</f>
         <v>Banking Services</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>46057</v>
       </c>
       <c r="H7" s="4">
@@ -24157,7 +24175,7 @@
         <v>11.41</v>
       </c>
       <c r="J7" s="8">
-        <f ca="1">+I7/H7-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -24176,7 +24194,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>343</v>
       </c>
@@ -24187,11 +24205,11 @@
         <f t="array" aca="1" ref="E8" ca="1">+_FV(D8,"Símbolo do ticker",TRUE)</f>
         <v>FER</v>
       </c>
-      <c r="F8" s="10" t="str" cm="1">
+      <c r="F8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">+_FV(D8,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>46057</v>
       </c>
       <c r="H8" s="4">
@@ -24202,7 +24220,7 @@
         <v>57.62</v>
       </c>
       <c r="J8" s="8">
-        <f ca="1">+I8/H8-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -24221,7 +24239,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>348</v>
       </c>
@@ -24232,11 +24250,11 @@
         <f t="array" aca="1" ref="E9" ca="1">+_FV(D9,"Símbolo do ticker",TRUE)</f>
         <v>AENA</v>
       </c>
-      <c r="F9" s="10" t="str" cm="1">
+      <c r="F9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">+_FV(D9,"Setor")</f>
         <v>Transport Infrastructure</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>46057</v>
       </c>
       <c r="H9" s="4">
@@ -24247,7 +24265,7 @@
         <v>26.99</v>
       </c>
       <c r="J9" s="8">
-        <f ca="1">+I9/H9-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -24266,7 +24284,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>353</v>
       </c>
@@ -24277,11 +24295,11 @@
         <f t="array" aca="1" ref="E10" ca="1">+_FV(D10,"Símbolo do ticker",TRUE)</f>
         <v>CCEP</v>
       </c>
-      <c r="F10" s="10" t="str" cm="1">
+      <c r="F10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">+_FV(D10,"Setor")</f>
         <v>Beverages</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>46057</v>
       </c>
       <c r="H10" s="4">
@@ -24292,7 +24310,7 @@
         <v>80.3</v>
       </c>
       <c r="J10" s="8">
-        <f ca="1">+I10/H10-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -24311,7 +24329,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>358</v>
       </c>
@@ -24322,11 +24340,11 @@
         <f t="array" aca="1" ref="E11" ca="1">+_FV(D11,"Símbolo do ticker",TRUE)</f>
         <v>MTS</v>
       </c>
-      <c r="F11" s="10" t="str" cm="1">
+      <c r="F11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">+_FV(D11,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>46057</v>
       </c>
       <c r="H11" s="4">
@@ -24337,7 +24355,7 @@
         <v>47.56</v>
       </c>
       <c r="J11" s="8">
-        <f ca="1">+I11/H11-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -24356,7 +24374,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>364</v>
       </c>
@@ -24367,11 +24385,11 @@
         <f t="array" aca="1" ref="E12" ca="1">+_FV(D12,"Símbolo do ticker",TRUE)</f>
         <v>ELE</v>
       </c>
-      <c r="F12" s="10" t="str" cm="1">
+      <c r="F12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">+_FV(D12,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>46057</v>
       </c>
       <c r="H12" s="4">
@@ -24382,7 +24400,7 @@
         <v>31.35</v>
       </c>
       <c r="J12" s="8">
-        <f ca="1">+I12/H12-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -24401,7 +24419,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>368</v>
       </c>
@@ -24412,11 +24430,11 @@
         <f t="array" aca="1" ref="E13" ca="1">+_FV(D13,"Símbolo do ticker",TRUE)</f>
         <v>NTGY</v>
       </c>
-      <c r="F13" s="10" t="str" cm="1">
+      <c r="F13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">+_FV(D13,"Setor")</f>
         <v>Natural Gas Utilities</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <v>46057</v>
       </c>
       <c r="H13" s="4">
@@ -24427,7 +24445,7 @@
         <v>26.64</v>
       </c>
       <c r="J13" s="8">
-        <f ca="1">+I13/H13-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -24446,7 +24464,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>1074</v>
       </c>
@@ -24457,11 +24475,11 @@
         <f t="array" aca="1" ref="E14" ca="1">+_FV(D14,"Símbolo do ticker",TRUE)</f>
         <v>ACS</v>
       </c>
-      <c r="F14" s="10" t="str" cm="1">
+      <c r="F14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">+_FV(D14,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
         <v>46057</v>
       </c>
       <c r="H14" s="4">
@@ -24472,7 +24490,7 @@
         <v>93.45</v>
       </c>
       <c r="J14" s="8">
-        <f ca="1">+I14/H14-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -24491,7 +24509,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -24512,7 +24530,7 @@
         <f t="array" aca="1" ref="F15" ca="1">+_FV(D15,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>46057</v>
       </c>
       <c r="H15" s="3">
@@ -24523,7 +24541,7 @@
         <v>53.5</v>
       </c>
       <c r="J15" s="6">
-        <f ca="1">+I15/H15-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -24542,7 +24560,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -24563,7 +24581,7 @@
         <f t="array" aca="1" ref="F16" ca="1">+_FV(D16,"Setor")</f>
         <v>Passenger Transportation Services</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <v>46057</v>
       </c>
       <c r="H16" s="3">
@@ -24574,7 +24592,7 @@
         <v>4.9980000000000002</v>
       </c>
       <c r="J16" s="6">
-        <f ca="1">+I16/H16-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -24593,7 +24611,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>387</v>
       </c>
@@ -24604,11 +24622,11 @@
         <f t="array" aca="1" ref="E17" ca="1">+_FV(D17,"Símbolo do ticker",TRUE)</f>
         <v>TEF</v>
       </c>
-      <c r="F17" s="10" t="str" cm="1">
+      <c r="F17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">+_FV(D17,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>46057</v>
       </c>
       <c r="H17" s="4">
@@ -24619,7 +24637,7 @@
         <v>3.6589999999999998</v>
       </c>
       <c r="J17" s="8">
-        <f ca="1">+I17/H17-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -24638,7 +24656,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>392</v>
       </c>
@@ -24649,11 +24667,11 @@
         <f t="array" aca="1" ref="E18" ca="1">+_FV(D18,"Símbolo do ticker",TRUE)</f>
         <v>REP</v>
       </c>
-      <c r="F18" s="10" t="str" cm="1">
+      <c r="F18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">+_FV(D18,"Setor")</f>
         <v>Oil &amp; Gas</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <v>46057</v>
       </c>
       <c r="H18" s="4">
@@ -24664,7 +24682,7 @@
         <v>16.504999999999999</v>
       </c>
       <c r="J18" s="8">
-        <f ca="1">+I18/H18-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -24683,7 +24701,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -24704,7 +24722,7 @@
         <f t="array" aca="1" ref="F19" ca="1">+_FV(D19,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <v>46057</v>
       </c>
       <c r="H19" s="3">
@@ -24715,7 +24733,7 @@
         <v>27.73</v>
       </c>
       <c r="J19" s="6">
-        <f ca="1">+I19/H19-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -24734,7 +24752,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>402</v>
       </c>
@@ -24745,11 +24763,11 @@
         <f t="array" aca="1" ref="E20" ca="1">+_FV(D20,"Símbolo do ticker",TRUE)</f>
         <v>SAB</v>
       </c>
-      <c r="F20" s="10" t="str" cm="1">
+      <c r="F20" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">+_FV(D20,"Setor")</f>
         <v>Banking Services</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>46057</v>
       </c>
       <c r="H20" s="4">
@@ -24760,7 +24778,7 @@
         <v>3.3919999999999999</v>
       </c>
       <c r="J20" s="8">
-        <f ca="1">+I20/H20-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -24779,7 +24797,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>405</v>
       </c>
@@ -24790,11 +24808,11 @@
         <f t="array" aca="1" ref="E21" ca="1">+_FV(D21,"Símbolo do ticker",TRUE)</f>
         <v>BKT</v>
       </c>
-      <c r="F21" s="10" t="str" cm="1">
+      <c r="F21" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">+_FV(D21,"Setor")</f>
         <v>Banking Services</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>46057</v>
       </c>
       <c r="H21" s="4">
@@ -24805,7 +24823,7 @@
         <v>14.79</v>
       </c>
       <c r="J21" s="8">
-        <f ca="1">+I21/H21-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -24822,7 +24840,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>409</v>
       </c>
@@ -24833,11 +24851,11 @@
         <f t="array" aca="1" ref="E22" ca="1">+_FV(D22,"Símbolo do ticker",TRUE)</f>
         <v>MAP</v>
       </c>
-      <c r="F22" s="10" t="str" cm="1">
+      <c r="F22" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">+_FV(D22,"Setor")</f>
         <v>Insurance</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <v>46057</v>
       </c>
       <c r="H22" s="4">
@@ -24848,7 +24866,7 @@
         <v>3.93</v>
       </c>
       <c r="J22" s="8">
-        <f ca="1">+I22/H22-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -24867,7 +24885,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -24888,7 +24906,7 @@
         <f t="array" aca="1" ref="F23" ca="1">+_FV(D23,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="10">
         <v>46057</v>
       </c>
       <c r="H23" s="3">
@@ -24899,7 +24917,7 @@
         <v>182.3</v>
       </c>
       <c r="J23" s="6">
-        <f ca="1">+I23/H23-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -24918,7 +24936,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -24935,11 +24953,11 @@
         <f t="array" aca="1" ref="E24" ca="1">+_FV(D24,"Símbolo do ticker",TRUE)</f>
         <v>PUIG</v>
       </c>
-      <c r="F24" s="10" t="str" cm="1">
+      <c r="F24" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">+_FV(D24,"Setor")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <v>46057</v>
       </c>
       <c r="H24" s="4">
@@ -24950,7 +24968,7 @@
         <v>17.309999999999999</v>
       </c>
       <c r="J24" s="8">
-        <f ca="1">+I24/H24-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -24969,7 +24987,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>424</v>
       </c>
@@ -24980,11 +24998,11 @@
         <f t="array" aca="1" ref="E25" ca="1">+_FV(D25,"Símbolo do ticker",TRUE)</f>
         <v>IDR</v>
       </c>
-      <c r="F25" s="10" t="str" cm="1">
+      <c r="F25" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">+_FV(D25,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <v>46057</v>
       </c>
       <c r="H25" s="4">
@@ -24995,7 +25013,7 @@
         <v>46.8</v>
       </c>
       <c r="J25" s="8">
-        <f ca="1">+I25/H25-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -25014,7 +25032,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>428</v>
       </c>
@@ -25025,11 +25043,11 @@
         <f t="array" aca="1" ref="E26" ca="1">+_FV(D26,"Símbolo do ticker",TRUE)</f>
         <v>RED</v>
       </c>
-      <c r="F26" s="10" t="str" cm="1">
+      <c r="F26" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">+_FV(D26,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="11">
         <v>46057</v>
       </c>
       <c r="H26" s="4">
@@ -25040,7 +25058,7 @@
         <v>14.99</v>
       </c>
       <c r="J26" s="8">
-        <f ca="1">+I26/H26-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -25059,7 +25077,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>431</v>
       </c>
@@ -25070,11 +25088,11 @@
         <f t="array" aca="1" ref="E27" ca="1">+_FV(D27,"Símbolo do ticker",TRUE)</f>
         <v>UNI</v>
       </c>
-      <c r="F27" s="10" t="str" cm="1">
+      <c r="F27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">+_FV(D27,"Setor")</f>
         <v>Banking Services</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="11">
         <v>46057</v>
       </c>
       <c r="H27" s="4">
@@ -25085,7 +25103,7 @@
         <v>2.8159999999999998</v>
       </c>
       <c r="J27" s="8">
-        <f ca="1">+I27/H27-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -25104,7 +25122,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>436</v>
       </c>
@@ -25115,11 +25133,11 @@
         <f t="array" aca="1" ref="E28" ca="1">+_FV(D28,"Símbolo do ticker",TRUE)</f>
         <v>MRL</v>
       </c>
-      <c r="F28" s="10" t="str" cm="1">
+      <c r="F28" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">+_FV(D28,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="11">
         <v>46057</v>
       </c>
       <c r="H28" s="4">
@@ -25130,7 +25148,7 @@
         <v>12.84</v>
       </c>
       <c r="J28" s="8">
-        <f ca="1">+I28/H28-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -25149,7 +25167,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>440</v>
       </c>
@@ -25160,11 +25178,11 @@
         <f t="array" aca="1" ref="E29" ca="1">+_FV(D29,"Símbolo do ticker",TRUE)</f>
         <v>ANE</v>
       </c>
-      <c r="F29" s="10" t="str" cm="1">
+      <c r="F29" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">+_FV(D29,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="11">
         <v>46057</v>
       </c>
       <c r="H29" s="4">
@@ -25175,7 +25193,7 @@
         <v>21.36</v>
       </c>
       <c r="J29" s="8">
-        <f ca="1">+I29/H29-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -25194,7 +25212,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -25205,11 +25223,11 @@
         <f t="array" aca="1" ref="E30" ca="1">+_FV(D30,"Símbolo do ticker",TRUE)</f>
         <v>GRF.P</v>
       </c>
-      <c r="F30" s="10" t="str" cm="1">
+      <c r="F30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">+_FV(D30,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="11">
         <v>46057</v>
       </c>
       <c r="H30" s="4">
@@ -25220,7 +25238,7 @@
         <v>8.07</v>
       </c>
       <c r="J30" s="8">
-        <f ca="1">+I30/H30-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -25239,7 +25257,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>449</v>
       </c>
@@ -25250,11 +25268,11 @@
         <f t="array" aca="1" ref="E31" ca="1">+_FV(D31,"Símbolo do ticker",TRUE)</f>
         <v>GRF</v>
       </c>
-      <c r="F31" s="10" t="str" cm="1">
+      <c r="F31" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">+_FV(D31,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="11">
         <v>46057</v>
       </c>
       <c r="H31" s="4">
@@ -25265,7 +25283,7 @@
         <v>11.045</v>
       </c>
       <c r="J31" s="8">
-        <f ca="1">+I31/H31-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -25284,7 +25302,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>450</v>
       </c>
@@ -25295,11 +25313,11 @@
         <f t="array" aca="1" ref="E32" ca="1">+_FV(D32,"Símbolo do ticker",TRUE)</f>
         <v>FCC</v>
       </c>
-      <c r="F32" s="10" t="str" cm="1">
+      <c r="F32" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">+_FV(D32,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="11">
         <v>46057</v>
       </c>
       <c r="H32" s="4">
@@ -25310,7 +25328,7 @@
         <v>11.3</v>
       </c>
       <c r="J32" s="8">
-        <f ca="1">+I32/H32-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -25329,7 +25347,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>455</v>
       </c>
@@ -25340,11 +25358,11 @@
         <f t="array" aca="1" ref="E33" ca="1">+_FV(D33,"Símbolo do ticker",TRUE)</f>
         <v>FDR</v>
       </c>
-      <c r="F33" s="10" t="str" cm="1">
+      <c r="F33" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">+_FV(D33,"Setor")</f>
         <v>Leisure Products</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="11">
         <v>46057</v>
       </c>
       <c r="H33" s="4">
@@ -25355,7 +25373,7 @@
         <v>25.12</v>
       </c>
       <c r="J33" s="8">
-        <f ca="1">+I33/H33-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -25374,7 +25392,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -25395,7 +25413,7 @@
         <f t="array" aca="1" ref="F34" ca="1">+_FV(D34,"Setor")</f>
         <v>Freight &amp; Logistics Services</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="10">
         <v>46057</v>
       </c>
       <c r="H34" s="3">
@@ -25406,7 +25424,7 @@
         <v>31.76</v>
       </c>
       <c r="J34" s="6">
-        <f ca="1">+I34/H34-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
@@ -25425,7 +25443,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>464</v>
       </c>
@@ -25436,11 +25454,11 @@
         <f t="array" aca="1" ref="E35" ca="1">+_FV(D35,"Símbolo do ticker",TRUE)</f>
         <v>GGC</v>
       </c>
-      <c r="F35" s="10" t="str" cm="1">
+      <c r="F35" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">+_FV(D35,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="11">
         <v>46057</v>
       </c>
       <c r="H35" s="4">
@@ -25451,7 +25469,7 @@
         <v>162</v>
       </c>
       <c r="J35" s="8">
-        <f ca="1">+I35/H35-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="4">
@@ -25470,7 +25488,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>5</v>
       </c>
@@ -25481,11 +25499,11 @@
         <f t="array" aca="1" ref="E36" ca="1">+_FV(D36,"Símbolo do ticker",TRUE)</f>
         <v>ROVI</v>
       </c>
-      <c r="F36" s="10" t="str" cm="1">
+      <c r="F36" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">+_FV(D36,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="11">
         <v>46057</v>
       </c>
       <c r="H36" s="4">
@@ -25496,7 +25514,7 @@
         <v>73.55</v>
       </c>
       <c r="J36" s="8">
-        <f ca="1">+I36/H36-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
@@ -25515,7 +25533,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>471</v>
       </c>
@@ -25526,11 +25544,11 @@
         <f t="array" aca="1" ref="E37" ca="1">+_FV(D37,"Símbolo do ticker",TRUE)</f>
         <v>ENG</v>
       </c>
-      <c r="F37" s="10" t="str" cm="1">
+      <c r="F37" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">+_FV(D37,"Setor")</f>
         <v>Oil &amp; Gas Related Equipment and Services</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="11">
         <v>46057</v>
       </c>
       <c r="H37" s="4">
@@ -25541,7 +25559,7 @@
         <v>14.28</v>
       </c>
       <c r="J37" s="8">
-        <f ca="1">+I37/H37-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -25560,7 +25578,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>476</v>
       </c>
@@ -25571,11 +25589,11 @@
         <f t="array" aca="1" ref="E38" ca="1">+_FV(D38,"Símbolo do ticker",TRUE)</f>
         <v>CIE</v>
       </c>
-      <c r="F38" s="10" t="str" cm="1">
+      <c r="F38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">+_FV(D38,"Setor")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="11">
         <v>46057</v>
       </c>
       <c r="H38" s="4">
@@ -25586,7 +25604,7 @@
         <v>29.1</v>
       </c>
       <c r="J38" s="8">
-        <f ca="1">+I38/H38-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
@@ -25605,7 +25623,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -25616,11 +25634,11 @@
         <f t="array" aca="1" ref="E39" ca="1">+_FV(D39,"Símbolo do ticker",TRUE)</f>
         <v>COL</v>
       </c>
-      <c r="F39" s="10" t="str" cm="1">
+      <c r="F39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">+_FV(D39,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="11">
         <v>46057</v>
       </c>
       <c r="H39" s="4">
@@ -25631,7 +25649,7 @@
         <v>5.335</v>
       </c>
       <c r="J39" s="8">
-        <f ca="1">+I39/H39-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -25650,7 +25668,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>484</v>
       </c>
@@ -25661,11 +25679,11 @@
         <f t="array" aca="1" ref="E40" ca="1">+_FV(D40,"Símbolo do ticker",TRUE)</f>
         <v>SCYR</v>
       </c>
-      <c r="F40" s="10" t="str" cm="1">
+      <c r="F40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">+_FV(D40,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="11">
         <v>46057</v>
       </c>
       <c r="H40" s="4">
@@ -25676,7 +25694,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="J40" s="8">
-        <f ca="1">+I40/H40-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
@@ -25695,7 +25713,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>487</v>
       </c>
@@ -25706,11 +25724,11 @@
         <f t="array" aca="1" ref="E41" ca="1">+_FV(D41,"Símbolo do ticker",TRUE)</f>
         <v>ACX</v>
       </c>
-      <c r="F41" s="10" t="str" cm="1">
+      <c r="F41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">+_FV(D41,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="11">
         <v>46057</v>
       </c>
       <c r="H41" s="4">
@@ -25721,7 +25739,7 @@
         <v>12.51</v>
       </c>
       <c r="J41" s="8">
-        <f ca="1">+I41/H41-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
@@ -25740,7 +25758,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -25761,7 +25779,7 @@
         <f t="array" aca="1" ref="F42" ca="1">+_FV(D42,"Setor")</f>
         <v>Containers &amp; Packaging</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="10">
         <v>46057</v>
       </c>
       <c r="H42" s="3">
@@ -25772,7 +25790,7 @@
         <v>88.3</v>
       </c>
       <c r="J42" s="6">
-        <f ca="1">+I42/H42-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
@@ -25791,7 +25809,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>497</v>
       </c>
@@ -25802,11 +25820,11 @@
         <f t="array" aca="1" ref="E43" ca="1">+_FV(D43,"Símbolo do ticker",TRUE)</f>
         <v>EBRO</v>
       </c>
-      <c r="F43" s="10" t="str" cm="1">
+      <c r="F43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">+_FV(D43,"Setor")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="11">
         <v>46057</v>
       </c>
       <c r="H43" s="4">
@@ -25817,7 +25835,7 @@
         <v>18.62</v>
       </c>
       <c r="J43" s="8">
-        <f ca="1">+I43/H43-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -25834,7 +25852,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>500</v>
       </c>
@@ -25845,11 +25863,11 @@
         <f t="array" aca="1" ref="E44" ca="1">+_FV(D44,"Símbolo do ticker",TRUE)</f>
         <v>ALM</v>
       </c>
-      <c r="F44" s="10" t="str" cm="1">
+      <c r="F44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">+_FV(D44,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="11">
         <v>46057</v>
       </c>
       <c r="H44" s="4">
@@ -25860,7 +25878,7 @@
         <v>12.94</v>
       </c>
       <c r="J44" s="8">
-        <f ca="1">+I44/H44-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
@@ -25879,7 +25897,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>505</v>
       </c>
@@ -25890,11 +25908,11 @@
         <f t="array" aca="1" ref="E45" ca="1">+_FV(D45,"Símbolo do ticker",TRUE)</f>
         <v>APAM</v>
       </c>
-      <c r="F45" s="10" t="str" cm="1">
+      <c r="F45" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">+_FV(D45,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="11">
         <v>46057</v>
       </c>
       <c r="H45" s="4">
@@ -25905,7 +25923,7 @@
         <v>35.9</v>
       </c>
       <c r="J45" s="8">
-        <f ca="1">+I45/H45-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
@@ -25924,7 +25942,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>509</v>
       </c>
@@ -25935,11 +25953,11 @@
         <f t="array" aca="1" ref="E46" ca="1">+_FV(D46,"Símbolo do ticker",TRUE)</f>
         <v>GRE</v>
       </c>
-      <c r="F46" s="10" t="str" cm="1">
+      <c r="F46" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">+_FV(D46,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="11">
         <v>46057</v>
       </c>
       <c r="H46" s="4">
@@ -25950,7 +25968,7 @@
         <v>92.6</v>
       </c>
       <c r="J46" s="8">
-        <f ca="1">+I46/H46-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
@@ -25969,7 +25987,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7</v>
       </c>
@@ -25990,7 +26008,7 @@
         <f t="array" aca="1" ref="F47" ca="1">+_FV(D47,"Setor")</f>
         <v>Containers &amp; Packaging</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="10">
         <v>46057</v>
       </c>
       <c r="H47" s="3">
@@ -26001,7 +26019,7 @@
         <v>56.3</v>
       </c>
       <c r="J47" s="6">
-        <f ca="1">+I47/H47-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -26020,7 +26038,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>518</v>
       </c>
@@ -26031,11 +26049,11 @@
         <f t="array" aca="1" ref="E48" ca="1">+_FV(D48,"Símbolo do ticker",TRUE)</f>
         <v>CIRSA</v>
       </c>
-      <c r="F48" s="10" t="str" cm="1">
+      <c r="F48" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">+_FV(D48,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="11">
         <v>46057</v>
       </c>
       <c r="H48" s="4">
@@ -26046,7 +26064,7 @@
         <v>14.7</v>
       </c>
       <c r="J48" s="8">
-        <f ca="1">+I48/H48-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K48" s="4" t="s">
@@ -26063,7 +26081,7 @@
       </c>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>522</v>
       </c>
@@ -26074,11 +26092,11 @@
         <f t="array" aca="1" ref="E49" ca="1">+_FV(D49,"Símbolo do ticker",TRUE)</f>
         <v>TRE</v>
       </c>
-      <c r="F49" s="10" t="str" cm="1">
+      <c r="F49" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">+_FV(D49,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="11">
         <v>46057</v>
       </c>
       <c r="H49" s="4">
@@ -26089,7 +26107,7 @@
         <v>30.18</v>
       </c>
       <c r="J49" s="8">
-        <f ca="1">+I49/H49-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
@@ -26108,7 +26126,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>527</v>
       </c>
@@ -26119,11 +26137,11 @@
         <f t="array" aca="1" ref="E50" ca="1">+_FV(D50,"Símbolo do ticker",TRUE)</f>
         <v>DIA</v>
       </c>
-      <c r="F50" s="10" t="str" cm="1">
+      <c r="F50" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">+_FV(D50,"Setor")</f>
         <v>Food &amp; Drug Retailing</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="11">
         <v>46057</v>
       </c>
       <c r="H50" s="4">
@@ -26134,7 +26152,7 @@
         <v>38.6</v>
       </c>
       <c r="J50" s="8">
-        <f ca="1">+I50/H50-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
@@ -26153,7 +26171,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>531</v>
       </c>
@@ -26164,11 +26182,11 @@
         <f t="array" aca="1" ref="E51" ca="1">+_FV(D51,"Símbolo do ticker",TRUE)</f>
         <v>ENO</v>
       </c>
-      <c r="F51" s="10" t="str" cm="1">
+      <c r="F51" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">+_FV(D51,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="11">
         <v>46057</v>
       </c>
       <c r="H51" s="4">
@@ -26179,7 +26197,7 @@
         <v>26.45</v>
       </c>
       <c r="J51" s="8">
-        <f ca="1">+I51/H51-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -26198,7 +26216,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -26209,11 +26227,11 @@
         <f t="array" aca="1" ref="E52" ca="1">+_FV(D52,"Símbolo do ticker",TRUE)</f>
         <v>SLR</v>
       </c>
-      <c r="F52" s="10" t="str" cm="1">
+      <c r="F52" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">+_FV(D52,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="11">
         <v>46057</v>
       </c>
       <c r="H52" s="4">
@@ -26224,7 +26242,7 @@
         <v>17.57</v>
       </c>
       <c r="J52" s="8">
-        <f ca="1">+I52/H52-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
@@ -26243,7 +26261,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>540</v>
       </c>
@@ -26254,11 +26272,11 @@
         <f t="array" aca="1" ref="E53" ca="1">+_FV(D53,"Símbolo do ticker",TRUE)</f>
         <v>HOME</v>
       </c>
-      <c r="F53" s="10" t="str" cm="1">
+      <c r="F53" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">+_FV(D53,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="11">
         <v>46057</v>
       </c>
       <c r="H53" s="4">
@@ -26269,7 +26287,7 @@
         <v>20.2</v>
       </c>
       <c r="J53" s="8">
-        <f ca="1">+I53/H53-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
@@ -26288,7 +26306,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -26299,11 +26317,11 @@
         <f t="array" aca="1" ref="E54" ca="1">+_FV(D54,"Símbolo do ticker",TRUE)</f>
         <v>CAF</v>
       </c>
-      <c r="F54" s="10" t="str" cm="1">
+      <c r="F54" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">+_FV(D54,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="11">
         <v>46057</v>
       </c>
       <c r="H54" s="4">
@@ -26314,7 +26332,7 @@
         <v>55.8</v>
       </c>
       <c r="J54" s="8">
-        <f ca="1">+I54/H54-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K54" s="4" t="s">
@@ -26333,7 +26351,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>547</v>
       </c>
@@ -26344,11 +26362,11 @@
         <f t="array" aca="1" ref="E55" ca="1">+_FV(D55,"Símbolo do ticker",TRUE)</f>
         <v>GEST</v>
       </c>
-      <c r="F55" s="10" t="str" cm="1">
+      <c r="F55" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">+_FV(D55,"Setor")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="11">
         <v>46057</v>
       </c>
       <c r="H55" s="4">
@@ -26359,7 +26377,7 @@
         <v>3.13</v>
       </c>
       <c r="J55" s="8">
-        <f ca="1">+I55/H55-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
@@ -26378,7 +26396,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>552</v>
       </c>
@@ -26389,11 +26407,11 @@
         <f t="array" aca="1" ref="E56" ca="1">+_FV(D56,"Símbolo do ticker",TRUE)</f>
         <v>IMC</v>
       </c>
-      <c r="F56" s="10" t="str" cm="1">
+      <c r="F56" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">+_FV(D56,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="11">
         <v>46057</v>
       </c>
       <c r="H56" s="4">
@@ -26404,7 +26422,7 @@
         <v>4.0250000000000004</v>
       </c>
       <c r="J56" s="8">
-        <f ca="1">+I56/H56-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K56" s="4" t="s">
@@ -26421,7 +26439,7 @@
       </c>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>556</v>
       </c>
@@ -26432,11 +26450,11 @@
         <f t="array" aca="1" ref="E57" ca="1">+_FV(D57,"Símbolo do ticker",TRUE)</f>
         <v>MEL</v>
       </c>
-      <c r="F57" s="10" t="str" cm="1">
+      <c r="F57" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">+_FV(D57,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="11">
         <v>46057</v>
       </c>
       <c r="H57" s="4">
@@ -26447,7 +26465,7 @@
         <v>7.7450000000000001</v>
       </c>
       <c r="J57" s="8">
-        <f ca="1">+I57/H57-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
@@ -26466,7 +26484,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>559</v>
       </c>
@@ -26477,11 +26495,11 @@
         <f t="array" aca="1" ref="E58" ca="1">+_FV(D58,"Símbolo do ticker",TRUE)</f>
         <v>FAE</v>
       </c>
-      <c r="F58" s="10" t="str" cm="1">
+      <c r="F58" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">+_FV(D58,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="11">
         <v>46057</v>
       </c>
       <c r="H58" s="4">
@@ -26492,7 +26510,7 @@
         <v>5.24</v>
       </c>
       <c r="J58" s="8">
-        <f ca="1">+I58/H58-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -26511,7 +26529,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>563</v>
       </c>
@@ -26522,11 +26540,11 @@
         <f t="array" aca="1" ref="E59" ca="1">+_FV(D59,"Símbolo do ticker",TRUE)</f>
         <v>RLIA</v>
       </c>
-      <c r="F59" s="10" t="str" cm="1">
+      <c r="F59" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">+_FV(D59,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="11">
         <v>46057</v>
       </c>
       <c r="H59" s="4">
@@ -26537,7 +26555,7 @@
         <v>1.075</v>
       </c>
       <c r="J59" s="8">
-        <f ca="1">+I59/H59-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K59" s="4" t="s">
@@ -26556,7 +26574,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>568</v>
       </c>
@@ -26567,11 +26585,11 @@
         <f t="array" aca="1" ref="E60" ca="1">+_FV(D60,"Símbolo do ticker",TRUE)</f>
         <v>MVC</v>
       </c>
-      <c r="F60" s="10" t="str" cm="1">
+      <c r="F60" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">+_FV(D60,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="11">
         <v>46057</v>
       </c>
       <c r="H60" s="4">
@@ -26582,7 +26600,7 @@
         <v>10.3</v>
       </c>
       <c r="J60" s="8">
-        <f ca="1">+I60/H60-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K60" s="4" t="s">
@@ -26601,7 +26619,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>572</v>
       </c>
@@ -26612,11 +26630,11 @@
         <f t="array" aca="1" ref="E61" ca="1">+_FV(D61,"Símbolo do ticker",TRUE)</f>
         <v>BRAP3</v>
       </c>
-      <c r="F61" s="10" t="str" cm="1">
+      <c r="F61" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">+_FV(D61,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="11">
         <v>46057</v>
       </c>
       <c r="H61" s="4">
@@ -26627,7 +26645,7 @@
         <v>21.53</v>
       </c>
       <c r="J61" s="8">
-        <f ca="1">+I61/H61-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K61" s="4" t="s">
@@ -26642,7 +26660,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -26653,11 +26671,11 @@
         <f t="array" aca="1" ref="E62" ca="1">+_FV(D62,"Símbolo do ticker",TRUE)</f>
         <v>PSG</v>
       </c>
-      <c r="F62" s="10" t="str" cm="1">
+      <c r="F62" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">+_FV(D62,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="11">
         <v>46057</v>
       </c>
       <c r="H62" s="4">
@@ -26668,7 +26686,7 @@
         <v>2.83</v>
       </c>
       <c r="J62" s="8">
-        <f ca="1">+I62/H62-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -26687,7 +26705,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>577</v>
       </c>
@@ -26698,11 +26716,11 @@
         <f t="array" aca="1" ref="E63" ca="1">+_FV(D63,"Símbolo do ticker",TRUE)</f>
         <v>ART</v>
       </c>
-      <c r="F63" s="10" t="str" cm="1">
+      <c r="F63" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">+_FV(D63,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="11">
         <v>46057</v>
       </c>
       <c r="H63" s="4">
@@ -26713,7 +26731,7 @@
         <v>24.8</v>
       </c>
       <c r="J63" s="8">
-        <f ca="1">+I63/H63-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K63" s="4" t="s">
@@ -26732,7 +26750,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>582</v>
       </c>
@@ -26743,11 +26761,11 @@
         <f t="array" aca="1" ref="E64" ca="1">+_FV(D64,"Símbolo do ticker",TRUE)</f>
         <v>PHM</v>
       </c>
-      <c r="F64" s="10" t="str" cm="1">
+      <c r="F64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">+_FV(D64,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="11">
         <v>46057</v>
       </c>
       <c r="H64" s="4">
@@ -26758,7 +26776,7 @@
         <v>77.150000000000006</v>
       </c>
       <c r="J64" s="8">
-        <f ca="1">+I64/H64-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K64" s="4" t="s">
@@ -26777,7 +26795,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>132</v>
       </c>
@@ -26788,11 +26806,11 @@
         <f t="array" aca="1" ref="E65" ca="1">+_FV(D65,"Símbolo do ticker",TRUE)</f>
         <v>LDA</v>
       </c>
-      <c r="F65" s="10" t="str" cm="1">
+      <c r="F65" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">+_FV(D65,"Setor")</f>
         <v>Insurance</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="11">
         <v>46057</v>
       </c>
       <c r="H65" s="4">
@@ -26803,7 +26821,7 @@
         <v>1.1679999999999999</v>
       </c>
       <c r="J65" s="8">
-        <f ca="1">+I65/H65-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K65" s="4" t="s">
@@ -26822,7 +26840,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>591</v>
       </c>
@@ -26833,11 +26851,11 @@
         <f t="array" aca="1" ref="E66" ca="1">+_FV(D66,"Símbolo do ticker",TRUE)</f>
         <v>YGMP</v>
       </c>
-      <c r="F66" s="10" t="str" cm="1">
+      <c r="F66" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">+_FV(D66,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="11">
         <v>46057</v>
       </c>
       <c r="H66" s="4">
@@ -26848,7 +26866,7 @@
         <v>65</v>
       </c>
       <c r="J66" s="8">
-        <f ca="1">+I66/H66-1</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K66" s="4">
@@ -26867,7 +26885,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>594</v>
       </c>
@@ -26878,11 +26896,11 @@
         <f t="array" aca="1" ref="E67" ca="1">+_FV(D67,"Símbolo do ticker",TRUE)</f>
         <v>A3M</v>
       </c>
-      <c r="F67" s="10" t="str" cm="1">
+      <c r="F67" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">+_FV(D67,"Setor")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="11">
         <v>46057</v>
       </c>
       <c r="H67" s="4">
@@ -26893,7 +26911,7 @@
         <v>5.2</v>
       </c>
       <c r="J67" s="8">
-        <f ca="1">+I67/H67-1</f>
+        <f t="shared" ref="J67:J130" ca="1" si="1">+I67/H67-1</f>
         <v>0</v>
       </c>
       <c r="K67" s="4" t="s">
@@ -26912,7 +26930,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>597</v>
       </c>
@@ -26923,11 +26941,11 @@
         <f t="array" aca="1" ref="E68" ca="1">+_FV(D68,"Símbolo do ticker",TRUE)</f>
         <v>AEDAS</v>
       </c>
-      <c r="F68" s="10" t="str" cm="1">
+      <c r="F68" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">+_FV(D68,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="11">
         <v>46057</v>
       </c>
       <c r="H68" s="4">
@@ -26938,7 +26956,7 @@
         <v>23.95</v>
       </c>
       <c r="J68" s="8">
-        <f ca="1">+I68/H68-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K68" s="4" t="s">
@@ -26957,7 +26975,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>141</v>
       </c>
@@ -26968,11 +26986,11 @@
         <f t="array" aca="1" ref="E69" ca="1">+_FV(D69,"Símbolo do ticker",TRUE)</f>
         <v>YCPS</v>
       </c>
-      <c r="F69" s="10" t="str" cm="1">
+      <c r="F69" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">+_FV(D69,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="11">
         <v>46057</v>
       </c>
       <c r="H69" s="4">
@@ -26983,7 +27001,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="J69" s="8">
-        <f ca="1">+I69/H69-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K69" s="4">
@@ -27002,7 +27020,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>137</v>
       </c>
@@ -27013,11 +27031,11 @@
         <f t="array" aca="1" ref="E70" ca="1">+_FV(D70,"Símbolo do ticker",TRUE)</f>
         <v>YVIV</v>
       </c>
-      <c r="F70" s="10" t="str" cm="1">
+      <c r="F70" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">+_FV(D70,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="11">
         <v>46057</v>
       </c>
       <c r="H70" s="4">
@@ -27028,7 +27046,7 @@
         <v>1.36</v>
       </c>
       <c r="J70" s="8">
-        <f ca="1">+I70/H70-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K70" s="4" t="s">
@@ -27045,7 +27063,7 @@
       </c>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>605</v>
       </c>
@@ -27056,11 +27074,11 @@
         <f t="array" aca="1" ref="E71" ca="1">+_FV(D71,"Símbolo do ticker",TRUE)</f>
         <v>CASH</v>
       </c>
-      <c r="F71" s="10" t="str" cm="1">
+      <c r="F71" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">+_FV(D71,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="11">
         <v>46057</v>
       </c>
       <c r="H71" s="4">
@@ -27071,7 +27089,7 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="J71" s="8">
-        <f ca="1">+I71/H71-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K71" s="4" t="s">
@@ -27090,7 +27108,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>610</v>
       </c>
@@ -27101,11 +27119,11 @@
         <f t="array" aca="1" ref="E72" ca="1">+_FV(D72,"Símbolo do ticker",TRUE)</f>
         <v>CBAV</v>
       </c>
-      <c r="F72" s="10" t="str" cm="1">
+      <c r="F72" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">+_FV(D72,"Setor")</f>
         <v>Healthcare Providers &amp; Services</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="11">
         <v>46057</v>
       </c>
       <c r="H72" s="4">
@@ -27116,7 +27134,7 @@
         <v>50.4</v>
       </c>
       <c r="J72" s="8">
-        <f ca="1">+I72/H72-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K72" s="4" t="s">
@@ -27135,7 +27153,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>614</v>
       </c>
@@ -27146,11 +27164,11 @@
         <f t="array" aca="1" ref="E73" ca="1">+_FV(D73,"Símbolo do ticker",TRUE)</f>
         <v>R4</v>
       </c>
-      <c r="F73" s="10" t="str" cm="1">
+      <c r="F73" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">+_FV(D73,"Setor")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="11">
         <v>46057</v>
       </c>
       <c r="H73" s="4">
@@ -27161,7 +27179,7 @@
         <v>19</v>
       </c>
       <c r="J73" s="8">
-        <f ca="1">+I73/H73-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -27180,7 +27198,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>617</v>
       </c>
@@ -27191,11 +27209,11 @@
         <f t="array" aca="1" ref="E74" ca="1">+_FV(D74,"Símbolo do ticker",TRUE)</f>
         <v>SCLRE</v>
       </c>
-      <c r="F74" s="10" t="str" cm="1">
+      <c r="F74" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">+_FV(D74,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="11">
         <v>46057</v>
       </c>
       <c r="H74" s="4" t="e" vm="73">
@@ -27206,7 +27224,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="8" t="e" vm="74">
-        <f>+I74/H74-1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K74" s="4" t="s">
@@ -27225,7 +27243,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>620</v>
       </c>
@@ -27236,11 +27254,11 @@
         <f t="array" aca="1" ref="E75" ca="1">+_FV(D75,"Símbolo do ticker",TRUE)</f>
         <v>EAT</v>
       </c>
-      <c r="F75" s="10" t="str" cm="1">
+      <c r="F75" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">+_FV(D75,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="11">
         <v>46057</v>
       </c>
       <c r="H75" s="4">
@@ -27251,7 +27269,7 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="J75" s="8">
-        <f ca="1">+I75/H75-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K75" s="4" t="s">
@@ -27270,7 +27288,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>624</v>
       </c>
@@ -27281,11 +27299,11 @@
         <f t="array" aca="1" ref="E76" ca="1">+_FV(D76,"Símbolo do ticker",TRUE)</f>
         <v>ADX</v>
       </c>
-      <c r="F76" s="10" t="str" cm="1">
+      <c r="F76" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">+_FV(D76,"Setor")</f>
         <v>Multiline Utilities</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="11">
         <v>46057</v>
       </c>
       <c r="H76" s="4">
@@ -27296,7 +27314,7 @@
         <v>1.32</v>
       </c>
       <c r="J76" s="8">
-        <f ca="1">+I76/H76-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K76" s="4" t="s">
@@ -27315,7 +27333,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>629</v>
       </c>
@@ -27326,11 +27344,11 @@
         <f t="array" aca="1" ref="E77" ca="1">+_FV(D77,"Símbolo do ticker",TRUE)</f>
         <v>YZBL</v>
       </c>
-      <c r="F77" s="10" t="str" cm="1">
+      <c r="F77" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">+_FV(D77,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="11">
         <v>46057</v>
       </c>
       <c r="H77" s="4">
@@ -27341,7 +27359,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="J77" s="8">
-        <f ca="1">+I77/H77-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K77" s="4">
@@ -27360,7 +27378,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>631</v>
       </c>
@@ -27371,11 +27389,11 @@
         <f t="array" aca="1" ref="E78" ca="1">+_FV(D78,"Símbolo do ticker",TRUE)</f>
         <v>GSJ</v>
       </c>
-      <c r="F78" s="10" t="str" cm="1">
+      <c r="F78" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">+_FV(D78,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="11">
         <v>46057</v>
       </c>
       <c r="H78" s="4">
@@ -27386,7 +27404,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="J78" s="8">
-        <f ca="1">+I78/H78-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K78" s="4" t="s">
@@ -27405,7 +27423,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>10</v>
       </c>
@@ -27416,11 +27434,11 @@
         <f t="array" aca="1" ref="E79" ca="1">+_FV(D79,"Símbolo do ticker",TRUE)</f>
         <v>ENC</v>
       </c>
-      <c r="F79" s="10" t="str" cm="1">
+      <c r="F79" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">+_FV(D79,"Setor")</f>
         <v>Paper &amp; Forest Products</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="11">
         <v>46057</v>
       </c>
       <c r="H79" s="4">
@@ -27431,7 +27449,7 @@
         <v>2.278</v>
       </c>
       <c r="J79" s="8">
-        <f ca="1">+I79/H79-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K79" s="4" t="s">
@@ -27450,7 +27468,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>9</v>
       </c>
@@ -27461,11 +27479,11 @@
         <f t="array" aca="1" ref="E80" ca="1">+_FV(D80,"Símbolo do ticker",TRUE)</f>
         <v>MCM</v>
       </c>
-      <c r="F80" s="10" t="str" cm="1">
+      <c r="F80" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">+_FV(D80,"Setor")</f>
         <v>Paper &amp; Forest Products</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="11">
         <v>46057</v>
       </c>
       <c r="H80" s="4">
@@ -27476,7 +27494,7 @@
         <v>14.1</v>
       </c>
       <c r="J80" s="8">
-        <f ca="1">+I80/H80-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K80" s="4" t="s">
@@ -27495,7 +27513,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>643</v>
       </c>
@@ -27506,11 +27524,11 @@
         <f t="array" aca="1" ref="E81" ca="1">+_FV(D81,"Símbolo do ticker",TRUE)</f>
         <v>DOM</v>
       </c>
-      <c r="F81" s="10" t="str" cm="1">
+      <c r="F81" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">+_FV(D81,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="11">
         <v>46057</v>
       </c>
       <c r="H81" s="4">
@@ -27521,7 +27539,7 @@
         <v>3.43</v>
       </c>
       <c r="J81" s="8">
-        <f ca="1">+I81/H81-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K81" s="4" t="s">
@@ -27540,7 +27558,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>647</v>
       </c>
@@ -27551,11 +27569,11 @@
         <f t="array" aca="1" ref="E82" ca="1">+_FV(D82,"Símbolo do ticker",TRUE)</f>
         <v>YATO</v>
       </c>
-      <c r="F82" s="10" t="str" cm="1">
+      <c r="F82" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">+_FV(D82,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="11">
         <v>46057</v>
       </c>
       <c r="H82" s="4">
@@ -27566,7 +27584,7 @@
         <v>15.7</v>
       </c>
       <c r="J82" s="8">
-        <f ca="1">+I82/H82-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K82" s="4">
@@ -27585,7 +27603,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>650</v>
       </c>
@@ -27596,11 +27614,11 @@
         <f t="array" aca="1" ref="E83" ca="1">+_FV(D83,"Símbolo do ticker",TRUE)</f>
         <v>OHLA</v>
       </c>
-      <c r="F83" s="10" t="str" cm="1">
+      <c r="F83" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">+_FV(D83,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="11">
         <v>46057</v>
       </c>
       <c r="H83" s="4">
@@ -27611,7 +27629,7 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="J83" s="8">
-        <f ca="1">+I83/H83-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -27630,7 +27648,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>654</v>
       </c>
@@ -27641,11 +27659,11 @@
         <f t="array" aca="1" ref="E84" ca="1">+_FV(D84,"Símbolo do ticker",TRUE)</f>
         <v>ALC</v>
       </c>
-      <c r="F84" s="10" t="str" cm="1">
+      <c r="F84" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">+_FV(D84,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="11">
         <v>46057</v>
       </c>
       <c r="H84" s="4">
@@ -27656,7 +27674,7 @@
         <v>7.1</v>
       </c>
       <c r="J84" s="8">
-        <f ca="1">+I84/H84-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K84" s="4" t="s">
@@ -27675,7 +27693,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>7</v>
       </c>
@@ -27686,11 +27704,11 @@
         <f t="array" aca="1" ref="E85" ca="1">+_FV(D85,"Símbolo do ticker",TRUE)</f>
         <v>PRS</v>
       </c>
-      <c r="F85" s="10" t="str" cm="1">
+      <c r="F85" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">+_FV(D85,"Setor")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="11">
         <v>46057</v>
       </c>
       <c r="H85" s="4">
@@ -27701,7 +27719,7 @@
         <v>0.35</v>
       </c>
       <c r="J85" s="8">
-        <f ca="1">+I85/H85-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K85" s="4" t="s">
@@ -27720,7 +27738,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>659</v>
       </c>
@@ -27731,11 +27749,11 @@
         <f t="array" aca="1" ref="E86" ca="1">+_FV(D86,"Símbolo do ticker",TRUE)</f>
         <v>TUB</v>
       </c>
-      <c r="F86" s="10" t="str" cm="1">
+      <c r="F86" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">+_FV(D86,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="11">
         <v>46057</v>
       </c>
       <c r="H86" s="4">
@@ -27746,7 +27764,7 @@
         <v>3.41</v>
       </c>
       <c r="J86" s="8">
-        <f ca="1">+I86/H86-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K86" s="4" t="s">
@@ -27765,7 +27783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>8</v>
       </c>
@@ -27776,11 +27794,11 @@
         <f t="array" aca="1" ref="E87" ca="1">+_FV(D87,"Símbolo do ticker",TRUE)</f>
         <v>NXT</v>
       </c>
-      <c r="F87" s="10" t="str" cm="1">
+      <c r="F87" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">+_FV(D87,"Setor")</f>
         <v>Textiles &amp; Apparel</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="11">
         <v>46057</v>
       </c>
       <c r="H87" s="4">
@@ -27791,7 +27809,7 @@
         <v>0.94</v>
       </c>
       <c r="J87" s="8">
-        <f ca="1">+I87/H87-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K87" s="4" t="s">
@@ -27810,7 +27828,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>154</v>
       </c>
@@ -27821,11 +27839,11 @@
         <f t="array" aca="1" ref="E88" ca="1">+_FV(D88,"Símbolo do ticker",TRUE)</f>
         <v>YTST</v>
       </c>
-      <c r="F88" s="10" t="str" cm="1">
+      <c r="F88" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">+_FV(D88,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="11">
         <v>46057</v>
       </c>
       <c r="H88" s="4">
@@ -27836,7 +27854,7 @@
         <v>3.1</v>
       </c>
       <c r="J88" s="8">
-        <f ca="1">+I88/H88-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K88" s="4">
@@ -27855,7 +27873,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>668</v>
       </c>
@@ -27866,11 +27884,11 @@
         <f t="array" aca="1" ref="E89" ca="1">+_FV(D89,"Símbolo do ticker",TRUE)</f>
         <v>AMP</v>
       </c>
-      <c r="F89" s="10" t="str" cm="1">
+      <c r="F89" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">+_FV(D89,"Setor")</f>
         <v>Communications &amp; Networking</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="11">
         <v>46057</v>
       </c>
       <c r="H89" s="4">
@@ -27881,7 +27899,7 @@
         <v>0.17879999999999999</v>
       </c>
       <c r="J89" s="8">
-        <f ca="1">+I89/H89-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K89" s="4" t="s">
@@ -27900,7 +27918,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>672</v>
       </c>
@@ -27911,11 +27929,11 @@
         <f t="array" aca="1" ref="E90" ca="1">+_FV(D90,"Símbolo do ticker",TRUE)</f>
         <v>TLGO</v>
       </c>
-      <c r="F90" s="10" t="str" cm="1">
+      <c r="F90" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">+_FV(D90,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="11">
         <v>46057</v>
       </c>
       <c r="H90" s="4">
@@ -27926,7 +27944,7 @@
         <v>2.92</v>
       </c>
       <c r="J90" s="8">
-        <f ca="1">+I90/H90-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K90" s="4" t="s">
@@ -27945,7 +27963,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>676</v>
       </c>
@@ -27956,11 +27974,11 @@
         <f t="array" aca="1" ref="E91" ca="1">+_FV(D91,"Símbolo do ticker",TRUE)</f>
         <v>YFID</v>
       </c>
-      <c r="F91" s="10" t="str" cm="1">
+      <c r="F91" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F91" ca="1">+_FV(D91,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="11">
         <v>46057</v>
       </c>
       <c r="H91" s="4">
@@ -27971,7 +27989,7 @@
         <v>40</v>
       </c>
       <c r="J91" s="8">
-        <f ca="1">+I91/H91-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K91" s="4">
@@ -27990,12 +28008,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>679</v>
@@ -28011,7 +28029,7 @@
         <f t="array" aca="1" ref="F92" ca="1">+_FV(D92,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="10">
         <v>46057</v>
       </c>
       <c r="H92" s="3">
@@ -28022,7 +28040,7 @@
         <v>3.355</v>
       </c>
       <c r="J92" s="6">
-        <f ca="1">+I92/H92-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K92" s="3" t="s">
@@ -28041,7 +28059,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>684</v>
       </c>
@@ -28052,11 +28070,11 @@
         <f t="array" aca="1" ref="E93" ca="1">+_FV(D93,"Símbolo do ticker",TRUE)</f>
         <v>ALNT</v>
       </c>
-      <c r="F93" s="10" t="str" cm="1">
+      <c r="F93" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">+_FV(D93,"Setor")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="11">
         <v>46057</v>
       </c>
       <c r="H93" s="4">
@@ -28067,7 +28085,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="J93" s="8">
-        <f ca="1">+I93/H93-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K93" s="4" t="s">
@@ -28086,7 +28104,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>689</v>
       </c>
@@ -28097,11 +28115,11 @@
         <f t="array" aca="1" ref="E94" ca="1">+_FV(D94,"Símbolo do ticker",TRUE)</f>
         <v>YHTI</v>
       </c>
-      <c r="F94" s="10" t="str" cm="1">
+      <c r="F94" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">+_FV(D94,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="11">
         <v>46057</v>
       </c>
       <c r="H94" s="4">
@@ -28112,7 +28130,7 @@
         <v>2.88</v>
       </c>
       <c r="J94" s="8">
-        <f ca="1">+I94/H94-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K94" s="4" t="s">
@@ -28131,7 +28149,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>694</v>
       </c>
@@ -28142,11 +28160,11 @@
         <f t="array" aca="1" ref="E95" ca="1">+_FV(D95,"Símbolo do ticker",TRUE)</f>
         <v>IZER</v>
       </c>
-      <c r="F95" s="10" t="str" cm="1">
+      <c r="F95" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">+_FV(D95,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="11">
         <v>46057</v>
       </c>
       <c r="H95" s="4">
@@ -28157,7 +28175,7 @@
         <v>9.56</v>
       </c>
       <c r="J95" s="8">
-        <f ca="1">+I95/H95-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K95" s="4" t="s">
@@ -28176,7 +28194,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>699</v>
       </c>
@@ -28187,11 +28205,11 @@
         <f t="array" aca="1" ref="E96" ca="1">+_FV(D96,"Símbolo do ticker",TRUE)</f>
         <v>ECR</v>
       </c>
-      <c r="F96" s="10" t="str" cm="1">
+      <c r="F96" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">+_FV(D96,"Setor")</f>
         <v>Chemicals</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="11">
         <v>46057</v>
       </c>
       <c r="H96" s="4">
@@ -28202,7 +28220,7 @@
         <v>3.4249999999999998</v>
       </c>
       <c r="J96" s="8">
-        <f ca="1">+I96/H96-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K96" s="4" t="s">
@@ -28221,7 +28239,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>702</v>
       </c>
@@ -28232,11 +28250,11 @@
         <f t="array" aca="1" ref="E97" ca="1">+_FV(D97,"Símbolo do ticker",TRUE)</f>
         <v>NAT</v>
       </c>
-      <c r="F97" s="10" t="str" cm="1">
+      <c r="F97" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">+_FV(D97,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="11">
         <v>46057</v>
       </c>
       <c r="H97" s="4">
@@ -28247,7 +28265,7 @@
         <v>0.7</v>
       </c>
       <c r="J97" s="8">
-        <f ca="1">+I97/H97-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K97" s="4" t="s">
@@ -28266,7 +28284,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>707</v>
       </c>
@@ -28277,11 +28295,11 @@
         <f t="array" aca="1" ref="E98" ca="1">+_FV(D98,"Símbolo do ticker",TRUE)</f>
         <v>ISUR</v>
       </c>
-      <c r="F98" s="10" t="str" cm="1">
+      <c r="F98" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">+_FV(D98,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="11">
         <v>46057</v>
       </c>
       <c r="H98" s="4">
@@ -28292,7 +28310,7 @@
         <v>15.9</v>
       </c>
       <c r="J98" s="8">
-        <f ca="1">+I98/H98-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K98" s="4" t="s">
@@ -28311,7 +28329,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>712</v>
       </c>
@@ -28322,11 +28340,11 @@
         <f t="array" aca="1" ref="E99" ca="1">+_FV(D99,"Símbolo do ticker",TRUE)</f>
         <v>ENER</v>
       </c>
-      <c r="F99" s="10" t="str" cm="1">
+      <c r="F99" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">+_FV(D99,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G99" s="11">
         <v>46057</v>
       </c>
       <c r="H99" s="4">
@@ -28337,7 +28355,7 @@
         <v>4.95</v>
       </c>
       <c r="J99" s="8">
-        <f ca="1">+I99/H99-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K99" s="4" t="s">
@@ -28356,7 +28374,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>717</v>
       </c>
@@ -28367,11 +28385,11 @@
         <f t="array" aca="1" ref="E100" ca="1">+_FV(D100,"Símbolo do ticker",TRUE)</f>
         <v>YSIL</v>
       </c>
-      <c r="F100" s="10" t="str" cm="1">
+      <c r="F100" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">+_FV(D100,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="11">
         <v>46057</v>
       </c>
       <c r="H100" s="4">
@@ -28382,7 +28400,7 @@
         <v>11</v>
       </c>
       <c r="J100" s="8">
-        <f ca="1">+I100/H100-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K100" s="4">
@@ -28401,7 +28419,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>719</v>
       </c>
@@ -28412,11 +28430,11 @@
         <f t="array" aca="1" ref="E101" ca="1">+_FV(D101,"Símbolo do ticker",TRUE)</f>
         <v>SOL</v>
       </c>
-      <c r="F101" s="10" t="str" cm="1">
+      <c r="F101" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">+_FV(D101,"Setor")</f>
         <v>Renewable Energy</v>
       </c>
-      <c r="G101" s="15">
+      <c r="G101" s="11">
         <v>46057</v>
       </c>
       <c r="H101" s="4">
@@ -28427,7 +28445,7 @@
         <v>0.6</v>
       </c>
       <c r="J101" s="8">
-        <f ca="1">+I101/H101-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K101" s="4" t="s">
@@ -28444,7 +28462,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>723</v>
       </c>
@@ -28455,11 +28473,11 @@
         <f t="array" aca="1" ref="E102" ca="1">+_FV(D102,"Símbolo do ticker",TRUE)</f>
         <v>SEC</v>
       </c>
-      <c r="F102" s="10" t="str" cm="1">
+      <c r="F102" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">+_FV(D102,"Setor")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="11">
         <v>46057</v>
       </c>
       <c r="H102" s="4">
@@ -28470,7 +28488,7 @@
         <v>31.8</v>
       </c>
       <c r="J102" s="8">
-        <f ca="1">+I102/H102-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K102" s="4">
@@ -28489,7 +28507,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>726</v>
       </c>
@@ -28500,11 +28518,11 @@
         <f t="array" aca="1" ref="E103" ca="1">+_FV(D103,"Símbolo do ticker",TRUE)</f>
         <v>ORY</v>
       </c>
-      <c r="F103" s="10" t="str" cm="1">
+      <c r="F103" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">+_FV(D103,"Setor")</f>
         <v>Biotechnology &amp; Medical Research</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="11">
         <v>46057</v>
       </c>
       <c r="H103" s="4">
@@ -28515,7 +28533,7 @@
         <v>3.1749999999999998</v>
       </c>
       <c r="J103" s="8">
-        <f ca="1">+I103/H103-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K103" s="4" t="s">
@@ -28534,7 +28552,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>732</v>
       </c>
@@ -28545,11 +28563,11 @@
         <f t="array" aca="1" ref="E104" ca="1">+_FV(D104,"Símbolo do ticker",TRUE)</f>
         <v>ARM</v>
       </c>
-      <c r="F104" s="10" t="str" cm="1">
+      <c r="F104" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">+_FV(D104,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="11">
         <v>46057</v>
       </c>
       <c r="H104" s="4">
@@ -28560,7 +28578,7 @@
         <v>7.9</v>
       </c>
       <c r="J104" s="8">
-        <f ca="1">+I104/H104-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K104" s="4">
@@ -28579,7 +28597,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>736</v>
       </c>
@@ -28590,11 +28608,11 @@
         <f t="array" aca="1" ref="E105" ca="1">+_FV(D105,"Símbolo do ticker",TRUE)</f>
         <v>YVIT</v>
       </c>
-      <c r="F105" s="10" t="str" cm="1">
+      <c r="F105" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">+_FV(D105,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="11">
         <v>46057</v>
       </c>
       <c r="H105" s="4">
@@ -28605,7 +28623,7 @@
         <v>16.5</v>
       </c>
       <c r="J105" s="8">
-        <f ca="1">+I105/H105-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K105" s="4" t="s">
@@ -28624,7 +28642,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>739</v>
       </c>
@@ -28635,11 +28653,11 @@
         <f t="array" aca="1" ref="E106" ca="1">+_FV(D106,"Símbolo do ticker",TRUE)</f>
         <v>YIRG</v>
       </c>
-      <c r="F106" s="10" t="str" cm="1">
+      <c r="F106" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">+_FV(D106,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="11">
         <v>46057</v>
       </c>
       <c r="H106" s="4">
@@ -28650,7 +28668,7 @@
         <v>5.6</v>
       </c>
       <c r="J106" s="8">
-        <f ca="1">+I106/H106-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K106" s="4">
@@ -28669,7 +28687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>742</v>
       </c>
@@ -28680,11 +28698,11 @@
         <f t="array" aca="1" ref="E107" ca="1">+_FV(D107,"Símbolo do ticker",TRUE)</f>
         <v>SQRL</v>
       </c>
-      <c r="F107" s="10" t="str" cm="1">
+      <c r="F107" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">+_FV(D107,"Setor")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="G107" s="15">
+      <c r="G107" s="11">
         <v>46057</v>
       </c>
       <c r="H107" s="4">
@@ -28695,7 +28713,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="J107" s="8">
-        <f ca="1">+I107/H107-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K107" s="4" t="s">
@@ -28712,7 +28730,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>746</v>
       </c>
@@ -28723,11 +28741,11 @@
         <f t="array" aca="1" ref="E108" ca="1">+_FV(D108,"Símbolo do ticker",TRUE)</f>
         <v>IBG</v>
       </c>
-      <c r="F108" s="10" t="str" cm="1">
+      <c r="F108" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">+_FV(D108,"Setor")</f>
         <v>Paper &amp; Forest Products</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="11">
         <v>46057</v>
       </c>
       <c r="H108" s="4">
@@ -28738,7 +28756,7 @@
         <v>21</v>
       </c>
       <c r="J108" s="8">
-        <f ca="1">+I108/H108-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K108" s="4" t="s">
@@ -28757,7 +28775,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>749</v>
       </c>
@@ -28768,11 +28786,11 @@
         <f t="array" aca="1" ref="E109" ca="1">+_FV(D109,"Símbolo do ticker",TRUE)</f>
         <v>RJF</v>
       </c>
-      <c r="F109" s="10" t="str" cm="1">
+      <c r="F109" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">+_FV(D109,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="11">
         <v>46057</v>
       </c>
       <c r="H109" s="4">
@@ -28783,7 +28801,7 @@
         <v>2.75</v>
       </c>
       <c r="J109" s="8">
-        <f ca="1">+I109/H109-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K109" s="4" t="s">
@@ -28802,7 +28820,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>754</v>
       </c>
@@ -28813,11 +28831,11 @@
         <f t="array" aca="1" ref="E110" ca="1">+_FV(D110,"Símbolo do ticker",TRUE)</f>
         <v>ATRY</v>
       </c>
-      <c r="F110" s="10" t="str" cm="1">
+      <c r="F110" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">+_FV(D110,"Setor")</f>
         <v>Healthcare Providers &amp; Services</v>
       </c>
-      <c r="G110" s="15">
+      <c r="G110" s="11">
         <v>46057</v>
       </c>
       <c r="H110" s="4">
@@ -28828,7 +28846,7 @@
         <v>2.93</v>
       </c>
       <c r="J110" s="8">
-        <f ca="1">+I110/H110-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K110" s="4" t="s">
@@ -28847,7 +28865,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>759</v>
       </c>
@@ -28858,11 +28876,11 @@
         <f t="array" aca="1" ref="E111" ca="1">+_FV(D111,"Símbolo do ticker",TRUE)</f>
         <v>PRM</v>
       </c>
-      <c r="F111" s="10" t="str" cm="1">
+      <c r="F111" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">+_FV(D111,"Setor")</f>
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
-      <c r="G111" s="15">
+      <c r="G111" s="11">
         <v>46057</v>
       </c>
       <c r="H111" s="4">
@@ -28873,7 +28891,7 @@
         <v>12.9</v>
       </c>
       <c r="J111" s="8">
-        <f ca="1">+I111/H111-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K111" s="4" t="s">
@@ -28892,7 +28910,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>9</v>
       </c>
@@ -28913,7 +28931,7 @@
         <f t="array" aca="1" ref="F112" ca="1">+_FV(D112,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G112" s="14">
+      <c r="G112" s="10">
         <v>46057</v>
       </c>
       <c r="H112" s="3">
@@ -28924,7 +28942,7 @@
         <v>8.66</v>
       </c>
       <c r="J112" s="6">
-        <f ca="1">+I112/H112-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K112" s="3" t="s">
@@ -28943,7 +28961,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>176</v>
       </c>
@@ -28954,11 +28972,11 @@
         <f t="array" aca="1" ref="E113" ca="1">+_FV(D113,"Símbolo do ticker",TRUE)</f>
         <v>YTRI</v>
       </c>
-      <c r="F113" s="10" t="str" cm="1">
+      <c r="F113" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">+_FV(D113,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="11">
         <v>46057</v>
       </c>
       <c r="H113" s="4">
@@ -28969,7 +28987,7 @@
         <v>40.4</v>
       </c>
       <c r="J113" s="8">
-        <f ca="1">+I113/H113-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K113" s="4">
@@ -28986,7 +29004,7 @@
       </c>
       <c r="O113" s="4"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>773</v>
       </c>
@@ -28997,11 +29015,11 @@
         <f t="array" aca="1" ref="E114" ca="1">+_FV(D114,"Símbolo do ticker",TRUE)</f>
         <v>YORE</v>
       </c>
-      <c r="F114" s="10" t="str" cm="1">
+      <c r="F114" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">+_FV(D114,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G114" s="11">
         <v>46057</v>
       </c>
       <c r="H114" s="4">
@@ -29012,7 +29030,7 @@
         <v>0.95</v>
       </c>
       <c r="J114" s="8">
-        <f ca="1">+I114/H114-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K114" s="4" t="s">
@@ -29031,7 +29049,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>777</v>
       </c>
@@ -29042,11 +29060,11 @@
         <f t="array" aca="1" ref="E115" ca="1">+_FV(D115,"Símbolo do ticker",TRUE)</f>
         <v>VINTE*</v>
       </c>
-      <c r="F115" s="10" t="str" cm="1">
+      <c r="F115" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">+_FV(D115,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G115" s="15">
+      <c r="G115" s="11">
         <v>46057</v>
       </c>
       <c r="H115" s="4">
@@ -29057,7 +29075,7 @@
         <v>35.159999999999997</v>
       </c>
       <c r="J115" s="8">
-        <f ca="1">+I115/H115-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K115" s="4">
@@ -29076,7 +29094,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>780</v>
       </c>
@@ -29087,11 +29105,11 @@
         <f t="array" aca="1" ref="E116" ca="1">+_FV(D116,"Símbolo do ticker",TRUE)</f>
         <v>SCBYT</v>
       </c>
-      <c r="F116" s="10" t="str" cm="1">
+      <c r="F116" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F116" ca="1">+_FV(D116,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G116" s="15">
+      <c r="G116" s="11">
         <v>46057</v>
       </c>
       <c r="H116" s="4">
@@ -29102,7 +29120,7 @@
         <v>5.4</v>
       </c>
       <c r="J116" s="8">
-        <f ca="1">+I116/H116-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K116" s="4">
@@ -29121,7 +29139,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>183</v>
       </c>
@@ -29132,11 +29150,11 @@
         <f t="array" aca="1" ref="E117" ca="1">+_FV(D117,"Símbolo do ticker",TRUE)</f>
         <v>YDOA</v>
       </c>
-      <c r="F117" s="10" t="str" cm="1">
+      <c r="F117" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">+_FV(D117,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G117" s="15">
+      <c r="G117" s="11">
         <v>46057</v>
       </c>
       <c r="H117" s="4">
@@ -29147,7 +29165,7 @@
         <v>25.2</v>
       </c>
       <c r="J117" s="8">
-        <f ca="1">+I117/H117-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K117" s="4">
@@ -29166,7 +29184,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>786</v>
       </c>
@@ -29177,11 +29195,11 @@
         <f t="array" aca="1" ref="E118" ca="1">+_FV(D118,"Símbolo do ticker",TRUE)</f>
         <v>AI</v>
       </c>
-      <c r="F118" s="10" t="str" cm="1">
+      <c r="F118" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F118" ca="1">+_FV(D118,"Setor")</f>
         <v>Electronic Equipment &amp; Parts</v>
       </c>
-      <c r="G118" s="15">
+      <c r="G118" s="11">
         <v>46057</v>
       </c>
       <c r="H118" s="4">
@@ -29192,7 +29210,7 @@
         <v>9.7900000000000001E-2</v>
       </c>
       <c r="J118" s="8">
-        <f ca="1">+I118/H118-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K118" s="4" t="s">
@@ -29211,7 +29229,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>187</v>
       </c>
@@ -29222,11 +29240,11 @@
         <f t="array" aca="1" ref="E119" ca="1">+_FV(D119,"Símbolo do ticker",TRUE)</f>
         <v>BKY</v>
       </c>
-      <c r="F119" s="10" t="str" cm="1">
+      <c r="F119" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">+_FV(D119,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G119" s="15">
+      <c r="G119" s="11">
         <v>46057</v>
       </c>
       <c r="H119" s="4">
@@ -29237,7 +29255,7 @@
         <v>0.317</v>
       </c>
       <c r="J119" s="8">
-        <f ca="1">+I119/H119-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K119" s="4" t="s">
@@ -29256,7 +29274,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>794</v>
       </c>
@@ -29267,11 +29285,11 @@
         <f t="array" aca="1" ref="E120" ca="1">+_FV(D120,"Símbolo do ticker",TRUE)</f>
         <v>NTH</v>
       </c>
-      <c r="F120" s="10" t="str" cm="1">
+      <c r="F120" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F120" ca="1">+_FV(D120,"Setor")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="G120" s="15">
+      <c r="G120" s="11">
         <v>46057</v>
       </c>
       <c r="H120" s="4">
@@ -29282,7 +29300,7 @@
         <v>2.41</v>
       </c>
       <c r="J120" s="8">
-        <f ca="1">+I120/H120-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K120" s="4" t="s">
@@ -29301,7 +29319,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>798</v>
       </c>
@@ -29312,11 +29330,11 @@
         <f t="array" aca="1" ref="E121" ca="1">+_FV(D121,"Símbolo do ticker",TRUE)</f>
         <v>GAM</v>
       </c>
-      <c r="F121" s="10" t="str" cm="1">
+      <c r="F121" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F121" ca="1">+_FV(D121,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G121" s="15">
+      <c r="G121" s="11">
         <v>46057</v>
       </c>
       <c r="H121" s="4">
@@ -29327,7 +29345,7 @@
         <v>1.52</v>
       </c>
       <c r="J121" s="8">
-        <f ca="1">+I121/H121-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K121" s="4" t="s">
@@ -29346,7 +29364,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>803</v>
       </c>
@@ -29357,11 +29375,11 @@
         <f t="array" aca="1" ref="E122" ca="1">+_FV(D122,"Símbolo do ticker",TRUE)</f>
         <v>YADR</v>
       </c>
-      <c r="F122" s="10" t="str" cm="1">
+      <c r="F122" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F122" ca="1">+_FV(D122,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G122" s="15">
+      <c r="G122" s="11">
         <v>46057</v>
       </c>
       <c r="H122" s="4">
@@ -29372,7 +29390,7 @@
         <v>10.4</v>
       </c>
       <c r="J122" s="8">
-        <f ca="1">+I122/H122-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K122" s="4">
@@ -29391,7 +29409,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>805</v>
       </c>
@@ -29402,11 +29420,11 @@
         <f t="array" aca="1" ref="E123" ca="1">+_FV(D123,"Símbolo do ticker",TRUE)</f>
         <v>YISC</v>
       </c>
-      <c r="F123" s="10" t="str" cm="1">
+      <c r="F123" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F123" ca="1">+_FV(D123,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G123" s="11">
         <v>46057</v>
       </c>
       <c r="H123" s="4">
@@ -29417,7 +29435,7 @@
         <v>18</v>
       </c>
       <c r="J123" s="8">
-        <f ca="1">+I123/H123-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K123" s="4">
@@ -29436,7 +29454,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>807</v>
       </c>
@@ -29447,11 +29465,11 @@
         <f t="array" aca="1" ref="E124" ca="1">+_FV(D124,"Símbolo do ticker",TRUE)</f>
         <v>YTRM</v>
       </c>
-      <c r="F124" s="10" t="str" cm="1">
+      <c r="F124" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F124" ca="1">+_FV(D124,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G124" s="15">
+      <c r="G124" s="11">
         <v>46057</v>
       </c>
       <c r="H124" s="4">
@@ -29462,7 +29480,7 @@
         <v>23.8</v>
       </c>
       <c r="J124" s="8">
-        <f ca="1">+I124/H124-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K124" s="4">
@@ -29477,7 +29495,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>808</v>
       </c>
@@ -29488,11 +29506,11 @@
         <f t="array" aca="1" ref="E125" ca="1">+_FV(D125,"Símbolo do ticker",TRUE)</f>
         <v>OLE</v>
       </c>
-      <c r="F125" s="10" t="str" cm="1">
+      <c r="F125" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F125" ca="1">+_FV(D125,"Setor")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="G125" s="15">
+      <c r="G125" s="11">
         <v>46057</v>
       </c>
       <c r="H125" s="4">
@@ -29503,7 +29521,7 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="J125" s="8">
-        <f ca="1">+I125/H125-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K125" s="4" t="s">
@@ -29522,7 +29540,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>193</v>
       </c>
@@ -29533,11 +29551,11 @@
         <f t="array" aca="1" ref="E126" ca="1">+_FV(D126,"Símbolo do ticker",TRUE)</f>
         <v>YTEM</v>
       </c>
-      <c r="F126" s="10" t="str" cm="1">
+      <c r="F126" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F126" ca="1">+_FV(D126,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G126" s="15">
+      <c r="G126" s="11">
         <v>46057</v>
       </c>
       <c r="H126" s="4">
@@ -29548,7 +29566,7 @@
         <v>3.36</v>
       </c>
       <c r="J126" s="8">
-        <f ca="1">+I126/H126-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K126" s="4" t="s">
@@ -29567,7 +29585,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="127" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>10</v>
       </c>
@@ -29588,7 +29606,7 @@
         <f t="array" aca="1" ref="F127" ca="1">+_FV(D127,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G127" s="14">
+      <c r="G127" s="10">
         <v>46057</v>
       </c>
       <c r="H127" s="3">
@@ -29599,7 +29617,7 @@
         <v>9.68</v>
       </c>
       <c r="J127" s="6">
-        <f ca="1">+I127/H127-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K127" s="3" t="s">
@@ -29618,7 +29636,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>818</v>
       </c>
@@ -29629,11 +29647,11 @@
         <f t="array" aca="1" ref="E128" ca="1">+_FV(D128,"Símbolo do ticker",TRUE)</f>
         <v>YTAN</v>
       </c>
-      <c r="F128" s="10" t="str" cm="1">
+      <c r="F128" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F128" ca="1">+_FV(D128,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G128" s="15">
+      <c r="G128" s="11">
         <v>46057</v>
       </c>
       <c r="H128" s="4">
@@ -29644,7 +29662,7 @@
         <v>12.1</v>
       </c>
       <c r="J128" s="8">
-        <f ca="1">+I128/H128-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K128" s="4">
@@ -29663,7 +29681,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="129" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>820</v>
       </c>
@@ -29674,11 +29692,11 @@
         <f t="array" aca="1" ref="E129" ca="1">+_FV(D129,"Símbolo do ticker",TRUE)</f>
         <v>AMEN</v>
       </c>
-      <c r="F129" s="10" t="str" cm="1">
+      <c r="F129" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F129" ca="1">+_FV(D129,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G129" s="15">
+      <c r="G129" s="11">
         <v>46057</v>
       </c>
       <c r="H129" s="4">
@@ -29689,7 +29707,7 @@
         <v>8.15</v>
       </c>
       <c r="J129" s="8">
-        <f ca="1">+I129/H129-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K129" s="4">
@@ -29708,7 +29726,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="130" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>202</v>
       </c>
@@ -29719,11 +29737,11 @@
         <f t="array" aca="1" ref="E130" ca="1">+_FV(D130,"Símbolo do ticker",TRUE)</f>
         <v>GGR</v>
       </c>
-      <c r="F130" s="10" t="str" cm="1">
+      <c r="F130" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F130" ca="1">+_FV(D130,"Setor")</f>
         <v>Renewable Energy</v>
       </c>
-      <c r="G130" s="15">
+      <c r="G130" s="11">
         <v>46057</v>
       </c>
       <c r="H130" s="4">
@@ -29734,7 +29752,7 @@
         <v>3.86</v>
       </c>
       <c r="J130" s="8">
-        <f ca="1">+I130/H130-1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K130" s="4" t="s">
@@ -29753,7 +29771,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="131" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>826</v>
       </c>
@@ -29764,11 +29782,11 @@
         <f t="array" aca="1" ref="E131" ca="1">+_FV(D131,"Símbolo do ticker",TRUE)</f>
         <v>CLR</v>
       </c>
-      <c r="F131" s="10" t="str" cm="1">
+      <c r="F131" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F131" ca="1">+_FV(D131,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G131" s="15">
+      <c r="G131" s="11">
         <v>46057</v>
       </c>
       <c r="H131" s="4">
@@ -29779,7 +29797,7 @@
         <v>6.12</v>
       </c>
       <c r="J131" s="8">
-        <f ca="1">+I131/H131-1</f>
+        <f t="shared" ref="J131:J194" ca="1" si="2">+I131/H131-1</f>
         <v>0</v>
       </c>
       <c r="K131" s="4" t="s">
@@ -29798,7 +29816,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="132" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>203</v>
       </c>
@@ -29809,11 +29827,11 @@
         <f t="array" aca="1" ref="E132" ca="1">+_FV(D132,"Símbolo do ticker",TRUE)</f>
         <v>SNG</v>
       </c>
-      <c r="F132" s="10" t="str" cm="1">
+      <c r="F132" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F132" ca="1">+_FV(D132,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G132" s="15">
+      <c r="G132" s="11">
         <v>46057</v>
       </c>
       <c r="H132" s="4">
@@ -29824,7 +29842,7 @@
         <v>2.02</v>
       </c>
       <c r="J132" s="8">
-        <f ca="1">+I132/H132-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K132" s="4" t="s">
@@ -29841,7 +29859,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="133" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>832</v>
       </c>
@@ -29852,11 +29870,11 @@
         <f t="array" aca="1" ref="E133" ca="1">+_FV(D133,"Símbolo do ticker",TRUE)</f>
         <v>YGOP</v>
       </c>
-      <c r="F133" s="10" t="str" cm="1">
+      <c r="F133" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1">+_FV(D133,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G133" s="15">
+      <c r="G133" s="11">
         <v>46057</v>
       </c>
       <c r="H133" s="4">
@@ -29867,7 +29885,7 @@
         <v>16.7</v>
       </c>
       <c r="J133" s="8">
-        <f ca="1">+I133/H133-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K133" s="4">
@@ -29886,7 +29904,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="134" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>834</v>
       </c>
@@ -29897,11 +29915,11 @@
         <f t="array" aca="1" ref="E134" ca="1">+_FV(D134,"Símbolo do ticker",TRUE)</f>
         <v>YHSP</v>
       </c>
-      <c r="F134" s="10" t="str" cm="1">
+      <c r="F134" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F134" ca="1">+_FV(D134,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G134" s="15">
+      <c r="G134" s="11">
         <v>46057</v>
       </c>
       <c r="H134" s="4">
@@ -29912,7 +29930,7 @@
         <v>9</v>
       </c>
       <c r="J134" s="8">
-        <f ca="1">+I134/H134-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K134" s="4">
@@ -29931,7 +29949,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="135" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>837</v>
       </c>
@@ -29942,11 +29960,11 @@
         <f t="array" aca="1" ref="E135" ca="1">+_FV(D135,"Símbolo do ticker",TRUE)</f>
         <v>YADV</v>
       </c>
-      <c r="F135" s="10" t="str" cm="1">
+      <c r="F135" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1">+_FV(D135,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G135" s="15">
+      <c r="G135" s="11">
         <v>46057</v>
       </c>
       <c r="H135" s="4">
@@ -29957,7 +29975,7 @@
         <v>14.1</v>
       </c>
       <c r="J135" s="8">
-        <f ca="1">+I135/H135-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K135" s="4">
@@ -29974,7 +29992,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="136" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>839</v>
       </c>
@@ -29985,11 +30003,11 @@
         <f t="array" aca="1" ref="E136" ca="1">+_FV(D136,"Símbolo do ticker",TRUE)</f>
         <v>YIBI</v>
       </c>
-      <c r="F136" s="10" t="str" cm="1">
+      <c r="F136" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F136" ca="1">+_FV(D136,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G136" s="15">
+      <c r="G136" s="11">
         <v>46057</v>
       </c>
       <c r="H136" s="4">
@@ -30000,7 +30018,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J136" s="8">
-        <f ca="1">+I136/H136-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K136" s="4">
@@ -30015,7 +30033,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="137" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>840</v>
       </c>
@@ -30026,11 +30044,11 @@
         <f t="array" aca="1" ref="E137" ca="1">+_FV(D137,"Símbolo do ticker",TRUE)</f>
         <v>STNA</v>
       </c>
-      <c r="F137" s="10" t="e" cm="1" vm="138">
+      <c r="F137" s="4" t="e" cm="1" vm="138">
         <f t="array" ref="F137">+_FV(D137,"Setor")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G137" s="15">
+      <c r="G137" s="11">
         <v>46057</v>
       </c>
       <c r="H137" s="4">
@@ -30041,7 +30059,7 @@
         <v>12.4</v>
       </c>
       <c r="J137" s="8">
-        <f ca="1">+I137/H137-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K137" s="4">
@@ -30060,7 +30078,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="138" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>843</v>
       </c>
@@ -30071,11 +30089,11 @@
         <f t="array" aca="1" ref="E138" ca="1">+_FV(D138,"Símbolo do ticker",TRUE)</f>
         <v>APG</v>
       </c>
-      <c r="F138" s="10" t="str" cm="1">
+      <c r="F138" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F138" ca="1">+_FV(D138,"Setor")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="G138" s="15">
+      <c r="G138" s="11">
         <v>46057</v>
       </c>
       <c r="H138" s="4">
@@ -30086,7 +30104,7 @@
         <v>15.7</v>
       </c>
       <c r="J138" s="8">
-        <f ca="1">+I138/H138-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K138" s="4">
@@ -30105,7 +30123,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="139" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>846</v>
       </c>
@@ -30116,11 +30134,11 @@
         <f t="array" aca="1" ref="E139" ca="1">+_FV(D139,"Símbolo do ticker",TRUE)</f>
         <v>VYT</v>
       </c>
-      <c r="F139" s="10" t="str" cm="1">
+      <c r="F139" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F139" ca="1">+_FV(D139,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G139" s="15">
+      <c r="G139" s="11">
         <v>46057</v>
       </c>
       <c r="H139" s="4">
@@ -30131,7 +30149,7 @@
         <v>12.2</v>
       </c>
       <c r="J139" s="8">
-        <f ca="1">+I139/H139-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K139" s="4" t="s">
@@ -30150,7 +30168,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="140" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>216</v>
       </c>
@@ -30161,11 +30179,11 @@
         <f t="array" aca="1" ref="E140" ca="1">+_FV(D140,"Símbolo do ticker",TRUE)</f>
         <v>LLYC</v>
       </c>
-      <c r="F140" s="10" t="str" cm="1">
+      <c r="F140" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F140" ca="1">+_FV(D140,"Setor")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="G140" s="15">
+      <c r="G140" s="11">
         <v>46057</v>
       </c>
       <c r="H140" s="4">
@@ -30176,7 +30194,7 @@
         <v>7</v>
       </c>
       <c r="J140" s="8">
-        <f ca="1">+I140/H140-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K140" s="4" t="s">
@@ -30195,7 +30213,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="141" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>853</v>
       </c>
@@ -30206,11 +30224,11 @@
         <f t="array" aca="1" ref="E141" ca="1">+_FV(D141,"Símbolo do ticker",TRUE)</f>
         <v>SCBKF</v>
       </c>
-      <c r="F141" s="10" t="e" cm="1" vm="138">
+      <c r="F141" s="4" t="e" cm="1" vm="138">
         <f t="array" ref="F141">+_FV(D141,"Setor")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G141" s="15">
+      <c r="G141" s="11">
         <v>46057</v>
       </c>
       <c r="H141" s="4">
@@ -30221,7 +30239,7 @@
         <v>0.4</v>
       </c>
       <c r="J141" s="8">
-        <f ca="1">+I141/H141-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K141" s="4" t="s">
@@ -30240,7 +30258,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="142" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>858</v>
       </c>
@@ -30251,11 +30269,11 @@
         <f t="array" aca="1" ref="E142" ca="1">+_FV(D142,"Símbolo do ticker",TRUE)</f>
         <v>LIB</v>
       </c>
-      <c r="F142" s="10" t="str" cm="1">
+      <c r="F142" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1">+_FV(D142,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G142" s="15">
+      <c r="G142" s="11">
         <v>46057</v>
       </c>
       <c r="H142" s="4">
@@ -30266,7 +30284,7 @@
         <v>3.66</v>
       </c>
       <c r="J142" s="8">
-        <f ca="1">+I142/H142-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K142" s="4" t="s">
@@ -30285,7 +30303,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="143" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>862</v>
       </c>
@@ -30296,11 +30314,11 @@
         <f t="array" aca="1" ref="E143" ca="1">+_FV(D143,"Símbolo do ticker",TRUE)</f>
         <v>VOC</v>
       </c>
-      <c r="F143" s="10" t="str" cm="1">
+      <c r="F143" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">+_FV(D143,"Setor")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="G143" s="15">
+      <c r="G143" s="11">
         <v>46057</v>
       </c>
       <c r="H143" s="4">
@@ -30311,7 +30329,7 @@
         <v>0.64</v>
       </c>
       <c r="J143" s="8">
-        <f ca="1">+I143/H143-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K143" s="4" t="s">
@@ -30330,7 +30348,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="144" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>866</v>
       </c>
@@ -30341,11 +30359,11 @@
         <f t="array" aca="1" ref="E144" ca="1">+_FV(D144,"Símbolo do ticker",TRUE)</f>
         <v>YIPS</v>
       </c>
-      <c r="F144" s="10" t="str" cm="1">
+      <c r="F144" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F144" ca="1">+_FV(D144,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G144" s="15">
+      <c r="G144" s="11">
         <v>46057</v>
       </c>
       <c r="H144" s="4">
@@ -30356,7 +30374,7 @@
         <v>0.97</v>
       </c>
       <c r="J144" s="8">
-        <f ca="1">+I144/H144-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K144" s="4" t="s">
@@ -30375,7 +30393,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>868</v>
       </c>
@@ -30386,11 +30404,11 @@
         <f t="array" aca="1" ref="E145" ca="1">+_FV(D145,"Símbolo do ticker",TRUE)</f>
         <v>UMB</v>
       </c>
-      <c r="F145" s="10" t="str" cm="1">
+      <c r="F145" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F145" ca="1">+_FV(D145,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G145" s="15">
+      <c r="G145" s="11">
         <v>46057</v>
       </c>
       <c r="H145" s="4">
@@ -30401,7 +30419,7 @@
         <v>3.36</v>
       </c>
       <c r="J145" s="8">
-        <f ca="1">+I145/H145-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K145" s="4" t="s">
@@ -30420,7 +30438,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>872</v>
       </c>
@@ -30431,11 +30449,11 @@
         <f t="array" aca="1" ref="E146" ca="1">+_FV(D146,"Símbolo do ticker",TRUE)</f>
         <v>ETC</v>
       </c>
-      <c r="F146" s="10" t="str" cm="1">
+      <c r="F146" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F146" ca="1">+_FV(D146,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G146" s="15">
+      <c r="G146" s="11">
         <v>46057</v>
       </c>
       <c r="H146" s="4">
@@ -30446,7 +30464,7 @@
         <v>2.62</v>
       </c>
       <c r="J146" s="8">
-        <f ca="1">+I146/H146-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K146" s="4" t="s">
@@ -30465,7 +30483,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>877</v>
       </c>
@@ -30476,11 +30494,11 @@
         <f t="array" aca="1" ref="E147" ca="1">+_FV(D147,"Símbolo do ticker",TRUE)</f>
         <v>ALQ</v>
       </c>
-      <c r="F147" s="10" t="str" cm="1">
+      <c r="F147" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F147" ca="1">+_FV(D147,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G147" s="15">
+      <c r="G147" s="11">
         <v>46057</v>
       </c>
       <c r="H147" s="4">
@@ -30491,7 +30509,7 @@
         <v>12.8</v>
       </c>
       <c r="J147" s="8">
-        <f ca="1">+I147/H147-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K147" s="4">
@@ -30510,7 +30528,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>228</v>
       </c>
@@ -30521,11 +30539,11 @@
         <f t="array" aca="1" ref="E148" ca="1">+_FV(D148,"Símbolo do ticker",TRUE)</f>
         <v>YMIL</v>
       </c>
-      <c r="F148" s="10" t="str" cm="1">
+      <c r="F148" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">+_FV(D148,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G148" s="15">
+      <c r="G148" s="11">
         <v>46057</v>
       </c>
       <c r="H148" s="4">
@@ -30536,7 +30554,7 @@
         <v>27.2</v>
       </c>
       <c r="J148" s="8">
-        <f ca="1">+I148/H148-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K148" s="4">
@@ -30551,7 +30569,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>7</v>
       </c>
@@ -30572,7 +30590,7 @@
         <f t="array" aca="1" ref="F149" ca="1">+_FV(D149,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G149" s="14">
+      <c r="G149" s="10">
         <v>46057</v>
       </c>
       <c r="H149" s="3">
@@ -30583,7 +30601,7 @@
         <v>7.15</v>
       </c>
       <c r="J149" s="6">
-        <f ca="1">+I149/H149-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K149" s="3" t="s">
@@ -30598,7 +30616,7 @@
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>882</v>
       </c>
@@ -30609,11 +30627,11 @@
         <f t="array" aca="1" ref="E150" ca="1">+_FV(D150,"Símbolo do ticker",TRUE)</f>
         <v>SCORS</v>
       </c>
-      <c r="F150" s="10" t="str" cm="1">
+      <c r="F150" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">+_FV(D150,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G150" s="15">
+      <c r="G150" s="11">
         <v>46057</v>
       </c>
       <c r="H150" s="4">
@@ -30624,7 +30642,7 @@
         <v>13</v>
       </c>
       <c r="J150" s="8">
-        <f ca="1">+I150/H150-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K150" s="4">
@@ -30641,7 +30659,7 @@
       </c>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>884</v>
       </c>
@@ -30652,11 +30670,11 @@
         <f t="array" aca="1" ref="E151" ca="1">+_FV(D151,"Símbolo do ticker",TRUE)</f>
         <v>EIDF</v>
       </c>
-      <c r="F151" s="10" t="str" cm="1">
+      <c r="F151" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">+_FV(D151,"Setor")</f>
         <v>Renewable Energy</v>
       </c>
-      <c r="G151" s="15">
+      <c r="G151" s="11">
         <v>46057</v>
       </c>
       <c r="H151" s="4">
@@ -30667,7 +30685,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="J151" s="8">
-        <f ca="1">+I151/H151-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K151" s="4" t="s">
@@ -30686,7 +30704,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>889</v>
       </c>
@@ -30697,11 +30715,11 @@
         <f t="array" aca="1" ref="E152" ca="1">+_FV(D152,"Símbolo do ticker",TRUE)</f>
         <v>FACE</v>
       </c>
-      <c r="F152" s="10" t="str" cm="1">
+      <c r="F152" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F152" ca="1">+_FV(D152,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G152" s="15">
+      <c r="G152" s="11">
         <v>46057</v>
       </c>
       <c r="H152" s="4">
@@ -30712,7 +30730,7 @@
         <v>2.39</v>
       </c>
       <c r="J152" s="8">
-        <f ca="1">+I152/H152-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K152" s="4" t="s">
@@ -30731,7 +30749,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>894</v>
       </c>
@@ -30742,11 +30760,11 @@
         <f t="array" aca="1" ref="E153" ca="1">+_FV(D153,"Símbolo do ticker",TRUE)</f>
         <v>YARP</v>
       </c>
-      <c r="F153" s="10" t="str" cm="1">
+      <c r="F153" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">+_FV(D153,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G153" s="15">
+      <c r="G153" s="11">
         <v>46057</v>
       </c>
       <c r="H153" s="4">
@@ -30757,7 +30775,7 @@
         <v>2.8</v>
       </c>
       <c r="J153" s="8">
-        <f ca="1">+I153/H153-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K153" s="4">
@@ -30776,7 +30794,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>896</v>
       </c>
@@ -30787,11 +30805,11 @@
         <f t="array" aca="1" ref="E154" ca="1">+_FV(D154,"Símbolo do ticker",TRUE)</f>
         <v>LGT</v>
       </c>
-      <c r="F154" s="10" t="str" cm="1">
+      <c r="F154" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F154" ca="1">+_FV(D154,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G154" s="15">
+      <c r="G154" s="11">
         <v>46057</v>
       </c>
       <c r="H154" s="4">
@@ -30802,7 +30820,7 @@
         <v>5.7</v>
       </c>
       <c r="J154" s="8">
-        <f ca="1">+I154/H154-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K154" s="4" t="s">
@@ -30821,7 +30839,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>900</v>
       </c>
@@ -30832,11 +30850,11 @@
         <f t="array" aca="1" ref="E155" ca="1">+_FV(D155,"Símbolo do ticker",TRUE)</f>
         <v>MTB</v>
       </c>
-      <c r="F155" s="10" t="str" cm="1">
+      <c r="F155" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F155" ca="1">+_FV(D155,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G155" s="15">
+      <c r="G155" s="11">
         <v>46057</v>
       </c>
       <c r="H155" s="4">
@@ -30847,7 +30865,7 @@
         <v>1.82</v>
       </c>
       <c r="J155" s="8">
-        <f ca="1">+I155/H155-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K155" s="4" t="s">
@@ -30866,7 +30884,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>904</v>
       </c>
@@ -30877,11 +30895,11 @@
         <f t="array" aca="1" ref="E156" ca="1">+_FV(D156,"Símbolo do ticker",TRUE)</f>
         <v>PANG</v>
       </c>
-      <c r="F156" s="10" t="str" cm="1">
+      <c r="F156" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F156" ca="1">+_FV(D156,"Setor")</f>
         <v>Biotechnology &amp; Medical Research</v>
       </c>
-      <c r="G156" s="15">
+      <c r="G156" s="11">
         <v>46057</v>
       </c>
       <c r="H156" s="4">
@@ -30892,7 +30910,7 @@
         <v>1.65</v>
       </c>
       <c r="J156" s="8">
-        <f ca="1">+I156/H156-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K156" s="4" t="s">
@@ -30911,7 +30929,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>908</v>
       </c>
@@ -30922,11 +30940,11 @@
         <f t="array" aca="1" ref="E157" ca="1">+_FV(D157,"Símbolo do ticker",TRUE)</f>
         <v>SCIG2</v>
       </c>
-      <c r="F157" s="10" t="str" cm="1">
+      <c r="F157" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F157" ca="1">+_FV(D157,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G157" s="15">
+      <c r="G157" s="11">
         <v>46057</v>
       </c>
       <c r="H157" s="4" t="e" vm="73">
@@ -30937,7 +30955,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J157" s="8" t="e" vm="74">
-        <f>+I157/H157-1</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="K157" s="4" t="s">
@@ -30952,7 +30970,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>909</v>
       </c>
@@ -30963,11 +30981,11 @@
         <f t="array" aca="1" ref="E158" ca="1">+_FV(D158,"Símbolo do ticker",TRUE)</f>
         <v>ADZ</v>
       </c>
-      <c r="F158" s="10" t="str" cm="1">
+      <c r="F158" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">+_FV(D158,"Setor")</f>
         <v>Textiles &amp; Apparel</v>
       </c>
-      <c r="G158" s="15">
+      <c r="G158" s="11">
         <v>46057</v>
       </c>
       <c r="H158" s="4">
@@ -30978,7 +30996,7 @@
         <v>5.9</v>
       </c>
       <c r="J158" s="8">
-        <f ca="1">+I158/H158-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K158" s="4" t="s">
@@ -30997,7 +31015,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>913</v>
       </c>
@@ -31008,11 +31026,11 @@
         <f t="array" aca="1" ref="E159" ca="1">+_FV(D159,"Símbolo do ticker",TRUE)</f>
         <v>YINB1</v>
       </c>
-      <c r="F159" s="10" t="str" cm="1">
+      <c r="F159" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">+_FV(D159,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G159" s="15">
+      <c r="G159" s="11">
         <v>46057</v>
       </c>
       <c r="H159" s="4">
@@ -31023,7 +31041,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J159" s="8">
-        <f ca="1">+I159/H159-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K159" s="4" t="s">
@@ -31042,7 +31060,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>916</v>
       </c>
@@ -31053,11 +31071,11 @@
         <f t="array" aca="1" ref="E160" ca="1">+_FV(D160,"Símbolo do ticker",TRUE)</f>
         <v>EZE</v>
       </c>
-      <c r="F160" s="10" t="str" cm="1">
+      <c r="F160" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F160" ca="1">+_FV(D160,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G160" s="15">
+      <c r="G160" s="11">
         <v>46057</v>
       </c>
       <c r="H160" s="4">
@@ -31068,7 +31086,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
       <c r="J160" s="8">
-        <f ca="1">+I160/H160-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K160" s="4" t="s">
@@ -31087,7 +31105,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>919</v>
       </c>
@@ -31098,11 +31116,11 @@
         <f t="array" aca="1" ref="E161" ca="1">+_FV(D161,"Símbolo do ticker",TRUE)</f>
         <v>PAR</v>
       </c>
-      <c r="F161" s="10" t="str" cm="1">
+      <c r="F161" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F161" ca="1">+_FV(D161,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G161" s="15">
+      <c r="G161" s="11">
         <v>46057</v>
       </c>
       <c r="H161" s="4">
@@ -31113,7 +31131,7 @@
         <v>2.6</v>
       </c>
       <c r="J161" s="8">
-        <f ca="1">+I161/H161-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K161" s="4" t="s">
@@ -31132,7 +31150,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>922</v>
       </c>
@@ -31143,11 +31161,11 @@
         <f t="array" aca="1" ref="E162" ca="1">+_FV(D162,"Símbolo do ticker",TRUE)</f>
         <v>GIGA</v>
       </c>
-      <c r="F162" s="10" t="str" cm="1">
+      <c r="F162" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F162" ca="1">+_FV(D162,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G162" s="15">
+      <c r="G162" s="11">
         <v>46057</v>
       </c>
       <c r="H162" s="4">
@@ -31158,7 +31176,7 @@
         <v>3.9</v>
       </c>
       <c r="J162" s="8">
-        <f ca="1">+I162/H162-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K162" s="4" t="s">
@@ -31177,7 +31195,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>927</v>
       </c>
@@ -31188,11 +31206,11 @@
         <f t="array" aca="1" ref="E163" ca="1">+_FV(D163,"Símbolo do ticker",TRUE)</f>
         <v>AGIL</v>
       </c>
-      <c r="F163" s="10" t="str" cm="1">
+      <c r="F163" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F163" ca="1">+_FV(D163,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G163" s="15">
+      <c r="G163" s="11">
         <v>46057</v>
       </c>
       <c r="H163" s="4">
@@ -31203,7 +31221,7 @@
         <v>2.1</v>
       </c>
       <c r="J163" s="8">
-        <f ca="1">+I163/H163-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K163" s="4" t="s">
@@ -31222,7 +31240,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>931</v>
       </c>
@@ -31233,11 +31251,11 @@
         <f t="array" aca="1" ref="E164" ca="1">+_FV(D164,"Símbolo do ticker",TRUE)</f>
         <v>YINB4</v>
       </c>
-      <c r="F164" s="10" t="str" cm="1">
+      <c r="F164" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F164" ca="1">+_FV(D164,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G164" s="15">
+      <c r="G164" s="11">
         <v>46057</v>
       </c>
       <c r="H164" s="4">
@@ -31248,7 +31266,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="J164" s="8">
-        <f ca="1">+I164/H164-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K164" s="4">
@@ -31267,7 +31285,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>12</v>
       </c>
@@ -31278,11 +31296,11 @@
         <f t="array" aca="1" ref="E165" ca="1">+_FV(D165,"Símbolo do ticker",TRUE)</f>
         <v>TRG</v>
       </c>
-      <c r="F165" s="10" t="str" cm="1">
+      <c r="F165" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F165" ca="1">+_FV(D165,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G165" s="15">
+      <c r="G165" s="11">
         <v>46057</v>
       </c>
       <c r="H165" s="4">
@@ -31293,7 +31311,7 @@
         <v>0.26150000000000001</v>
       </c>
       <c r="J165" s="8">
-        <f ca="1">+I165/H165-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K165" s="4" t="s">
@@ -31312,7 +31330,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="166" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>936</v>
       </c>
@@ -31323,11 +31341,11 @@
         <f t="array" aca="1" ref="E166" ca="1">+_FV(D166,"Símbolo do ticker",TRUE)</f>
         <v>ENRS</v>
       </c>
-      <c r="F166" s="10" t="str" cm="1">
+      <c r="F166" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F166" ca="1">+_FV(D166,"Setor")</f>
         <v>Renewable Energy</v>
       </c>
-      <c r="G166" s="15">
+      <c r="G166" s="11">
         <v>46057</v>
       </c>
       <c r="H166" s="4">
@@ -31338,7 +31356,7 @@
         <v>1.03</v>
       </c>
       <c r="J166" s="8">
-        <f ca="1">+I166/H166-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K166" s="4" t="s">
@@ -31357,7 +31375,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>940</v>
       </c>
@@ -31368,11 +31386,11 @@
         <f t="array" aca="1" ref="E167" ca="1">+_FV(D167,"Símbolo do ticker",TRUE)</f>
         <v>SCAP7</v>
       </c>
-      <c r="F167" s="10" t="str" cm="1">
+      <c r="F167" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F167" ca="1">+_FV(D167,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G167" s="15">
+      <c r="G167" s="11">
         <v>46057</v>
       </c>
       <c r="H167" s="4">
@@ -31383,7 +31401,7 @@
         <v>5.6</v>
       </c>
       <c r="J167" s="8">
-        <f ca="1">+I167/H167-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K167" s="4">
@@ -31402,7 +31420,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>942</v>
       </c>
@@ -31413,11 +31431,11 @@
         <f t="array" aca="1" ref="E168" ca="1">+_FV(D168,"Símbolo do ticker",TRUE)</f>
         <v>480S</v>
       </c>
-      <c r="F168" s="10" t="str" cm="1">
+      <c r="F168" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F168" ca="1">+_FV(D168,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G168" s="15">
+      <c r="G168" s="11">
         <v>46057</v>
       </c>
       <c r="H168" s="4">
@@ -31428,7 +31446,7 @@
         <v>15</v>
       </c>
       <c r="J168" s="8">
-        <f ca="1">+I168/H168-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K168" s="4" t="s">
@@ -31443,7 +31461,7 @@
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>944</v>
       </c>
@@ -31454,11 +31472,11 @@
         <f t="array" aca="1" ref="E169" ca="1">+_FV(D169,"Símbolo do ticker",TRUE)</f>
         <v>MDF</v>
       </c>
-      <c r="F169" s="10" t="str" cm="1">
+      <c r="F169" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F169" ca="1">+_FV(D169,"Setor")</f>
         <v>Construction &amp; Engineering</v>
       </c>
-      <c r="G169" s="15">
+      <c r="G169" s="11">
         <v>46057</v>
       </c>
       <c r="H169" s="4">
@@ -31469,7 +31487,7 @@
         <v>0.1802</v>
       </c>
       <c r="J169" s="8">
-        <f ca="1">+I169/H169-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K169" s="4" t="s">
@@ -31488,7 +31506,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>948</v>
       </c>
@@ -31499,11 +31517,11 @@
         <f t="array" aca="1" ref="E170" ca="1">+_FV(D170,"Símbolo do ticker",TRUE)</f>
         <v>YHCR</v>
       </c>
-      <c r="F170" s="10" t="str" cm="1">
+      <c r="F170" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F170" ca="1">+_FV(D170,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G170" s="15">
+      <c r="G170" s="11">
         <v>46057</v>
       </c>
       <c r="H170" s="4">
@@ -31514,7 +31532,7 @@
         <v>6.2</v>
       </c>
       <c r="J170" s="8">
-        <f ca="1">+I170/H170-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K170" s="4">
@@ -31529,7 +31547,7 @@
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>949</v>
       </c>
@@ -31540,11 +31558,11 @@
         <f t="array" aca="1" ref="E171" ca="1">+_FV(D171,"Símbolo do ticker",TRUE)</f>
         <v>NBI</v>
       </c>
-      <c r="F171" s="10" t="str" cm="1">
+      <c r="F171" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F171" ca="1">+_FV(D171,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G171" s="15">
+      <c r="G171" s="11">
         <v>46057</v>
       </c>
       <c r="H171" s="4">
@@ -31555,7 +31573,7 @@
         <v>3.1</v>
       </c>
       <c r="J171" s="8">
-        <f ca="1">+I171/H171-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K171" s="4" t="s">
@@ -31574,7 +31592,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>954</v>
       </c>
@@ -31585,11 +31603,11 @@
         <f t="array" aca="1" ref="E172" ca="1">+_FV(D172,"Símbolo do ticker",TRUE)</f>
         <v>YQUO</v>
       </c>
-      <c r="F172" s="10" t="str" cm="1">
+      <c r="F172" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F172" ca="1">+_FV(D172,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G172" s="15">
+      <c r="G172" s="11">
         <v>46057</v>
       </c>
       <c r="H172" s="4">
@@ -31600,7 +31618,7 @@
         <v>1.28</v>
       </c>
       <c r="J172" s="8">
-        <f ca="1">+I172/H172-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K172" s="4" t="s">
@@ -31617,7 +31635,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>956</v>
       </c>
@@ -31628,11 +31646,11 @@
         <f t="array" aca="1" ref="E173" ca="1">+_FV(D173,"Símbolo do ticker",TRUE)</f>
         <v>YBAR</v>
       </c>
-      <c r="F173" s="10" t="str" cm="1">
+      <c r="F173" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F173" ca="1">+_FV(D173,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G173" s="15">
+      <c r="G173" s="11">
         <v>46057</v>
       </c>
       <c r="H173" s="4">
@@ -31643,7 +31661,7 @@
         <v>1.45</v>
       </c>
       <c r="J173" s="8">
-        <f ca="1">+I173/H173-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K173" s="4" t="s">
@@ -31662,7 +31680,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>958</v>
       </c>
@@ -31673,11 +31691,11 @@
         <f t="array" aca="1" ref="E174" ca="1">+_FV(D174,"Símbolo do ticker",TRUE)</f>
         <v>DESA</v>
       </c>
-      <c r="F174" s="10" t="str" cm="1">
+      <c r="F174" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F174" ca="1">+_FV(D174,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G174" s="15">
+      <c r="G174" s="11">
         <v>46057</v>
       </c>
       <c r="H174" s="4">
@@ -31688,7 +31706,7 @@
         <v>19</v>
       </c>
       <c r="J174" s="8">
-        <f ca="1">+I174/H174-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K174" s="4">
@@ -31707,7 +31725,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>960</v>
       </c>
@@ -31718,11 +31736,11 @@
         <f t="array" aca="1" ref="E175" ca="1">+_FV(D175,"Símbolo do ticker",TRUE)</f>
         <v>END</v>
       </c>
-      <c r="F175" s="10" t="str" cm="1">
+      <c r="F175" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F175" ca="1">+_FV(D175,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G175" s="15">
+      <c r="G175" s="11">
         <v>46057</v>
       </c>
       <c r="H175" s="4">
@@ -31733,7 +31751,7 @@
         <v>2.99</v>
       </c>
       <c r="J175" s="8">
-        <f ca="1">+I175/H175-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K175" s="4" t="s">
@@ -31748,7 +31766,7 @@
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>963</v>
       </c>
@@ -31759,11 +31777,11 @@
         <f t="array" aca="1" ref="E176" ca="1">+_FV(D176,"Símbolo do ticker",TRUE)</f>
         <v>ISE</v>
       </c>
-      <c r="F176" s="10" t="str" cm="1">
+      <c r="F176" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F176" ca="1">+_FV(D176,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G176" s="15">
+      <c r="G176" s="11">
         <v>46057</v>
       </c>
       <c r="H176" s="4">
@@ -31774,7 +31792,7 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="J176" s="8">
-        <f ca="1">+I176/H176-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K176" s="4">
@@ -31793,7 +31811,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="177" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>966</v>
       </c>
@@ -31804,11 +31822,11 @@
         <f t="array" aca="1" ref="E177" ca="1">+_FV(D177,"Símbolo do ticker",TRUE)</f>
         <v>LAB</v>
       </c>
-      <c r="F177" s="10" t="str" cm="1">
+      <c r="F177" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F177" ca="1">+_FV(D177,"Setor")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="G177" s="15">
+      <c r="G177" s="11">
         <v>46057</v>
       </c>
       <c r="H177" s="4">
@@ -31819,7 +31837,7 @@
         <v>4.5</v>
       </c>
       <c r="J177" s="8">
-        <f ca="1">+I177/H177-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K177" s="4" t="s">
@@ -31838,7 +31856,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>970</v>
       </c>
@@ -31849,11 +31867,11 @@
         <f t="array" aca="1" ref="E178" ca="1">+_FV(D178,"Símbolo do ticker",TRUE)</f>
         <v>YNUM</v>
       </c>
-      <c r="F178" s="10" t="str" cm="1">
+      <c r="F178" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F178" ca="1">+_FV(D178,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G178" s="15">
+      <c r="G178" s="11">
         <v>46057</v>
       </c>
       <c r="H178" s="4">
@@ -31864,7 +31882,7 @@
         <v>1.99</v>
       </c>
       <c r="J178" s="8">
-        <f ca="1">+I178/H178-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K178" s="4" t="s">
@@ -31883,7 +31901,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>973</v>
       </c>
@@ -31894,11 +31912,11 @@
         <f t="array" aca="1" ref="E179" ca="1">+_FV(D179,"Símbolo do ticker",TRUE)</f>
         <v>HLZ</v>
       </c>
-      <c r="F179" s="10" t="str" cm="1">
+      <c r="F179" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F179" ca="1">+_FV(D179,"Setor")</f>
         <v>Electrical Utilities &amp; IPPs</v>
       </c>
-      <c r="G179" s="15">
+      <c r="G179" s="11">
         <v>46057</v>
       </c>
       <c r="H179" s="4">
@@ -31909,7 +31927,7 @@
         <v>0.84</v>
       </c>
       <c r="J179" s="8">
-        <f ca="1">+I179/H179-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K179" s="4" t="s">
@@ -31928,7 +31946,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>977</v>
       </c>
@@ -31939,11 +31957,11 @@
         <f t="array" aca="1" ref="E180" ca="1">+_FV(D180,"Símbolo do ticker",TRUE)</f>
         <v>OPTS</v>
       </c>
-      <c r="F180" s="10" t="str" cm="1">
+      <c r="F180" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">+_FV(D180,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G180" s="15">
+      <c r="G180" s="11">
         <v>46057</v>
       </c>
       <c r="H180" s="4">
@@ -31954,7 +31972,7 @@
         <v>7.55</v>
       </c>
       <c r="J180" s="8">
-        <f ca="1">+I180/H180-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K180" s="4">
@@ -31969,7 +31987,7 @@
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
     </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>15</v>
       </c>
@@ -31980,11 +31998,11 @@
         <f t="array" aca="1" ref="E181" ca="1">+_FV(D181,"Símbolo do ticker",TRUE)</f>
         <v>REN</v>
       </c>
-      <c r="F181" s="10" t="str" cm="1">
+      <c r="F181" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F181" ca="1">+_FV(D181,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G181" s="15">
+      <c r="G181" s="11">
         <v>46057</v>
       </c>
       <c r="H181" s="4">
@@ -31995,7 +32013,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="J181" s="8">
-        <f ca="1">+I181/H181-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K181" s="4" t="s">
@@ -32014,7 +32032,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>982</v>
       </c>
@@ -32025,11 +32043,11 @@
         <f t="array" aca="1" ref="E182" ca="1">+_FV(D182,"Símbolo do ticker",TRUE)</f>
         <v>NYE</v>
       </c>
-      <c r="F182" s="10" t="str" cm="1">
+      <c r="F182" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F182" ca="1">+_FV(D182,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G182" s="15">
+      <c r="G182" s="11">
         <v>46057</v>
       </c>
       <c r="H182" s="4">
@@ -32040,7 +32058,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J182" s="8">
-        <f ca="1">+I182/H182-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K182" s="4" t="s">
@@ -32059,7 +32077,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>270</v>
       </c>
@@ -32070,11 +32088,11 @@
         <f t="array" aca="1" ref="E183" ca="1">+_FV(D183,"Símbolo do ticker",TRUE)</f>
         <v>YMIB</v>
       </c>
-      <c r="F183" s="10" t="str" cm="1">
+      <c r="F183" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F183" ca="1">+_FV(D183,"Setor")</f>
         <v>Real Estate Operations</v>
       </c>
-      <c r="G183" s="15">
+      <c r="G183" s="11">
         <v>46057</v>
       </c>
       <c r="H183" s="4">
@@ -32085,7 +32103,7 @@
         <v>1.04</v>
       </c>
       <c r="J183" s="8">
-        <f ca="1">+I183/H183-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K183" s="4" t="s">
@@ -32104,7 +32122,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>987</v>
       </c>
@@ -32115,11 +32133,11 @@
         <f t="array" aca="1" ref="E184" ca="1">+_FV(D184,"Símbolo do ticker",TRUE)</f>
         <v>YMAT</v>
       </c>
-      <c r="F184" s="10" t="str" cm="1">
+      <c r="F184" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F184" ca="1">+_FV(D184,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G184" s="15">
+      <c r="G184" s="11">
         <v>46057</v>
       </c>
       <c r="H184" s="4">
@@ -32130,7 +32148,7 @@
         <v>1.01</v>
       </c>
       <c r="J184" s="8">
-        <f ca="1">+I184/H184-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K184" s="4">
@@ -32145,7 +32163,7 @@
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
     </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>988</v>
       </c>
@@ -32156,11 +32174,11 @@
         <f t="array" aca="1" ref="E185" ca="1">+_FV(D185,"Símbolo do ticker",TRUE)</f>
         <v>SCGV</v>
       </c>
-      <c r="F185" s="10" t="str" cm="1">
+      <c r="F185" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F185" ca="1">+_FV(D185,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G185" s="15">
+      <c r="G185" s="11">
         <v>46057</v>
       </c>
       <c r="H185" s="4">
@@ -32171,7 +32189,7 @@
         <v>3.86</v>
       </c>
       <c r="J185" s="8">
-        <f ca="1">+I185/H185-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K185" s="4" t="s">
@@ -32186,7 +32204,7 @@
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
     </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>991</v>
       </c>
@@ -32197,11 +32215,11 @@
         <f t="array" aca="1" ref="E186" ca="1">+_FV(D186,"Símbolo do ticker",TRUE)</f>
         <v>LLN</v>
       </c>
-      <c r="F186" s="10" t="str" cm="1">
+      <c r="F186" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F186" ca="1">+_FV(D186,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G186" s="15">
+      <c r="G186" s="11">
         <v>46057</v>
       </c>
       <c r="H186" s="4">
@@ -32212,7 +32230,7 @@
         <v>1.22</v>
       </c>
       <c r="J186" s="8">
-        <f ca="1">+I186/H186-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K186" s="4" t="s">
@@ -32231,7 +32249,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>996</v>
       </c>
@@ -32242,11 +32260,11 @@
         <f t="array" aca="1" ref="E187" ca="1">+_FV(D187,"Símbolo do ticker",TRUE)</f>
         <v>COM</v>
       </c>
-      <c r="F187" s="10" t="str" cm="1">
+      <c r="F187" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">+_FV(D187,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G187" s="15">
+      <c r="G187" s="11">
         <v>46057</v>
       </c>
       <c r="H187" s="4">
@@ -32257,7 +32275,7 @@
         <v>1.05</v>
       </c>
       <c r="J187" s="8">
-        <f ca="1">+I187/H187-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K187" s="4" t="s">
@@ -32276,7 +32294,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>1000</v>
       </c>
@@ -32287,11 +32305,11 @@
         <f t="array" aca="1" ref="E188" ca="1">+_FV(D188,"Símbolo do ticker",TRUE)</f>
         <v>NZI</v>
       </c>
-      <c r="F188" s="10" t="str" cm="1">
+      <c r="F188" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F188" ca="1">+_FV(D188,"Setor")</f>
         <v>Leisure Products</v>
       </c>
-      <c r="G188" s="15">
+      <c r="G188" s="11">
         <v>46057</v>
       </c>
       <c r="H188" s="4">
@@ -32302,7 +32320,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J188" s="8">
-        <f ca="1">+I188/H188-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K188" s="4" t="s">
@@ -32317,7 +32335,7 @@
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
     </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>1001</v>
       </c>
@@ -32328,11 +32346,11 @@
         <f t="array" aca="1" ref="E189" ca="1">+_FV(D189,"Símbolo do ticker",TRUE)</f>
         <v>IFLEX</v>
       </c>
-      <c r="F189" s="10" t="str" cm="1">
+      <c r="F189" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F189" ca="1">+_FV(D189,"Setor")</f>
         <v>Containers &amp; Packaging</v>
       </c>
-      <c r="G189" s="15">
+      <c r="G189" s="11">
         <v>46057</v>
       </c>
       <c r="H189" s="4">
@@ -32343,7 +32361,7 @@
         <v>1.7</v>
       </c>
       <c r="J189" s="8">
-        <f ca="1">+I189/H189-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K189" s="4" t="s">
@@ -32358,7 +32376,7 @@
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
     </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
         <v>1004</v>
       </c>
@@ -32369,11 +32387,11 @@
         <f t="array" aca="1" ref="E190" ca="1">+_FV(D190,"Símbolo do ticker",TRUE)</f>
         <v>RDG</v>
       </c>
-      <c r="F190" s="10" t="str" cm="1">
+      <c r="F190" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F190" ca="1">+_FV(D190,"Setor")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="G190" s="15">
+      <c r="G190" s="11">
         <v>46057</v>
       </c>
       <c r="H190" s="4">
@@ -32384,7 +32402,7 @@
         <v>7.2</v>
       </c>
       <c r="J190" s="8">
-        <f ca="1">+I190/H190-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K190" s="4">
@@ -32399,7 +32417,7 @@
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
     </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>1005</v>
       </c>
@@ -32410,11 +32428,11 @@
         <f t="array" aca="1" ref="E191" ca="1">+_FV(D191,"Símbolo do ticker",TRUE)</f>
         <v>BST</v>
       </c>
-      <c r="F191" s="10" t="str" cm="1">
+      <c r="F191" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F191" ca="1">+_FV(D191,"Setor")</f>
         <v>Biotechnology &amp; Medical Research</v>
       </c>
-      <c r="G191" s="15">
+      <c r="G191" s="11">
         <v>46057</v>
       </c>
       <c r="H191" s="4">
@@ -32425,7 +32443,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="J191" s="8">
-        <f ca="1">+I191/H191-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K191" s="4" t="s">
@@ -32444,7 +32462,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>1010</v>
       </c>
@@ -32455,11 +32473,11 @@
         <f t="array" aca="1" ref="E192" ca="1">+_FV(D192,"Símbolo do ticker",TRUE)</f>
         <v>DOMO</v>
       </c>
-      <c r="F192" s="10" t="str" cm="1">
+      <c r="F192" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F192" ca="1">+_FV(D192,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G192" s="15">
+      <c r="G192" s="11">
         <v>46057</v>
       </c>
       <c r="H192" s="4">
@@ -32470,7 +32488,7 @@
         <v>1.21</v>
       </c>
       <c r="J192" s="8">
-        <f ca="1">+I192/H192-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K192" s="4" t="s">
@@ -32487,7 +32505,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="193" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
         <v>1011</v>
       </c>
@@ -32498,11 +32516,11 @@
         <f t="array" aca="1" ref="E193" ca="1">+_FV(D193,"Símbolo do ticker",TRUE)</f>
         <v>SAI.B</v>
       </c>
-      <c r="F193" s="10" t="str" cm="1">
+      <c r="F193" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F193" ca="1">+_FV(D193,"Setor")</f>
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
-      <c r="G193" s="15">
+      <c r="G193" s="11">
         <v>46057</v>
       </c>
       <c r="H193" s="4">
@@ -32513,7 +32531,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="J193" s="8">
-        <f ca="1">+I193/H193-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K193" s="4" t="s">
@@ -32532,7 +32550,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="194" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
         <v>1011</v>
       </c>
@@ -32543,11 +32561,11 @@
         <f t="array" aca="1" ref="E194" ca="1">+_FV(D194,"Símbolo do ticker",TRUE)</f>
         <v>SAI.B</v>
       </c>
-      <c r="F194" s="10" t="str" cm="1">
+      <c r="F194" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F194" ca="1">+_FV(D194,"Setor")</f>
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
-      <c r="G194" s="15">
+      <c r="G194" s="11">
         <v>46057</v>
       </c>
       <c r="H194" s="4">
@@ -32558,7 +32576,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="J194" s="8">
-        <f ca="1">+I194/H194-1</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K194" s="4" t="s">
@@ -32577,7 +32595,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="195" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
         <v>1016</v>
       </c>
@@ -32588,11 +32606,11 @@
         <f t="array" aca="1" ref="E195" ca="1">+_FV(D195,"Símbolo do ticker",TRUE)</f>
         <v>ELZ</v>
       </c>
-      <c r="F195" s="10" t="str" cm="1">
+      <c r="F195" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F195" ca="1">+_FV(D195,"Setor")</f>
         <v>Metals &amp; Mining</v>
       </c>
-      <c r="G195" s="15">
+      <c r="G195" s="11">
         <v>46057</v>
       </c>
       <c r="H195" s="4">
@@ -32603,7 +32621,7 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="J195" s="8">
-        <f ca="1">+I195/H195-1</f>
+        <f t="shared" ref="J195:J258" ca="1" si="3">+I195/H195-1</f>
         <v>0</v>
       </c>
       <c r="K195" s="4" t="s">
@@ -32622,7 +32640,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
         <v>1020</v>
       </c>
@@ -32633,11 +32651,11 @@
         <f t="array" aca="1" ref="E196" ca="1">+_FV(D196,"Símbolo do ticker",TRUE)</f>
         <v>RIO</v>
       </c>
-      <c r="F196" s="10" t="str" cm="1">
+      <c r="F196" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F196" ca="1">+_FV(D196,"Setor")</f>
         <v>Beverages</v>
       </c>
-      <c r="G196" s="15">
+      <c r="G196" s="11">
         <v>46057</v>
       </c>
       <c r="H196" s="4">
@@ -32648,7 +32666,7 @@
         <v>2.331</v>
       </c>
       <c r="J196" s="8">
-        <f ca="1">+I196/H196-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K196" s="4" t="s">
@@ -32665,7 +32683,7 @@
       </c>
       <c r="O196" s="4"/>
     </row>
-    <row r="197" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
         <v>1024</v>
       </c>
@@ -32676,11 +32694,11 @@
         <f t="array" aca="1" ref="E197" ca="1">+_FV(D197,"Símbolo do ticker",TRUE)</f>
         <v>YGO2</v>
       </c>
-      <c r="F197" s="10" t="str" cm="1">
+      <c r="F197" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F197" ca="1">+_FV(D197,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G197" s="15">
+      <c r="G197" s="11">
         <v>46057</v>
       </c>
       <c r="H197" s="4">
@@ -32691,7 +32709,7 @@
         <v>1.65</v>
       </c>
       <c r="J197" s="8">
-        <f ca="1">+I197/H197-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K197" s="4">
@@ -32706,7 +32724,7 @@
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
     </row>
-    <row r="198" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
         <v>1025</v>
       </c>
@@ -32717,11 +32735,11 @@
         <f t="array" aca="1" ref="E198" ca="1">+_FV(D198,"Símbolo do ticker",TRUE)</f>
         <v>YEIS</v>
       </c>
-      <c r="F198" s="10" t="str" cm="1">
+      <c r="F198" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F198" ca="1">+_FV(D198,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G198" s="15">
+      <c r="G198" s="11">
         <v>46057</v>
       </c>
       <c r="H198" s="4">
@@ -32732,7 +32750,7 @@
         <v>1.24</v>
       </c>
       <c r="J198" s="8">
-        <f ca="1">+I198/H198-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K198" s="4" t="s">
@@ -32749,7 +32767,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="199" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
         <v>1026</v>
       </c>
@@ -32760,11 +32778,11 @@
         <f t="array" aca="1" ref="E199" ca="1">+_FV(D199,"Símbolo do ticker",TRUE)</f>
         <v>SCCMM</v>
       </c>
-      <c r="F199" s="10" t="str" cm="1">
+      <c r="F199" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F199" ca="1">+_FV(D199,"Setor")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="G199" s="15">
+      <c r="G199" s="11">
         <v>46057</v>
       </c>
       <c r="H199" s="4">
@@ -32775,7 +32793,7 @@
         <v>1.64</v>
       </c>
       <c r="J199" s="8">
-        <f ca="1">+I199/H199-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K199" s="4">
@@ -32794,7 +32812,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="200" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
         <v>1028</v>
       </c>
@@ -32805,11 +32823,11 @@
         <f t="array" aca="1" ref="E200" ca="1">+_FV(D200,"Símbolo do ticker",TRUE)</f>
         <v>SCBTT</v>
       </c>
-      <c r="F200" s="10" t="e" cm="1" vm="138">
+      <c r="F200" s="4" t="e" cm="1" vm="138">
         <f t="array" ref="F200">+_FV(D200,"Setor")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G200" s="15">
+      <c r="G200" s="11">
         <v>46057</v>
       </c>
       <c r="H200" s="4">
@@ -32820,7 +32838,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J200" s="8">
-        <f ca="1">+I200/H200-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K200" s="4">
@@ -32835,7 +32853,7 @@
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
         <v>1029</v>
       </c>
@@ -32846,11 +32864,11 @@
         <f t="array" aca="1" ref="E201" ca="1">+_FV(D201,"Símbolo do ticker",TRUE)</f>
         <v>KOM</v>
       </c>
-      <c r="F201" s="10" t="str" cm="1">
+      <c r="F201" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F201" ca="1">+_FV(D201,"Setor")</f>
         <v>Chemicals</v>
       </c>
-      <c r="G201" s="15">
+      <c r="G201" s="11">
         <v>46057</v>
       </c>
       <c r="H201" s="4">
@@ -32861,7 +32879,7 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="J201" s="8">
-        <f ca="1">+I201/H201-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K201" s="4" t="s">
@@ -32880,7 +32898,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="202" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
         <v>1034</v>
       </c>
@@ -32891,11 +32909,11 @@
         <f t="array" aca="1" ref="E202" ca="1">+_FV(D202,"Símbolo do ticker",TRUE)</f>
         <v>RBT</v>
       </c>
-      <c r="F202" s="10" t="str" cm="1">
+      <c r="F202" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F202" ca="1">+_FV(D202,"Setor")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="G202" s="15">
+      <c r="G202" s="11">
         <v>46057</v>
       </c>
       <c r="H202" s="4">
@@ -32906,7 +32924,7 @@
         <v>3.1</v>
       </c>
       <c r="J202" s="8">
-        <f ca="1">+I202/H202-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K202" s="4" t="s">
@@ -32925,7 +32943,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="203" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
         <v>1036</v>
       </c>
@@ -32936,11 +32954,11 @@
         <f t="array" aca="1" ref="E203" ca="1">+_FV(D203,"Símbolo do ticker",TRUE)</f>
         <v>RSS</v>
       </c>
-      <c r="F203" s="10" t="str" cm="1">
+      <c r="F203" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F203" ca="1">+_FV(D203,"Setor")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="G203" s="15">
+      <c r="G203" s="11">
         <v>46057</v>
       </c>
       <c r="H203" s="4">
@@ -32951,7 +32969,7 @@
         <v>0.75</v>
       </c>
       <c r="J203" s="8">
-        <f ca="1">+I203/H203-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K203" s="4" t="s">
@@ -32966,7 +32984,7 @@
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
     </row>
-    <row r="204" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
         <v>1038</v>
       </c>
@@ -32977,11 +32995,11 @@
         <f t="array" aca="1" ref="E204" ca="1">+_FV(D204,"Símbolo do ticker",TRUE)</f>
         <v>VANA</v>
       </c>
-      <c r="F204" s="10" t="str" cm="1">
+      <c r="F204" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F204" ca="1">+_FV(D204,"Setor")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="G204" s="15">
+      <c r="G204" s="11">
         <v>46057</v>
       </c>
       <c r="H204" s="4">
@@ -32992,7 +33010,7 @@
         <v>0.11</v>
       </c>
       <c r="J204" s="8">
-        <f ca="1">+I204/H204-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K204" s="4" t="s">
@@ -33007,7 +33025,7 @@
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
     </row>
-    <row r="205" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
         <v>1041</v>
       </c>
@@ -33018,11 +33036,11 @@
         <f t="array" aca="1" ref="E205" ca="1">+_FV(D205,"Símbolo do ticker",TRUE)</f>
         <v>PVA</v>
       </c>
-      <c r="F205" s="10" t="str" cm="1">
+      <c r="F205" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F205" ca="1">+_FV(D205,"Setor")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="G205" s="15">
+      <c r="G205" s="11">
         <v>46057</v>
       </c>
       <c r="H205" s="4">
@@ -33033,7 +33051,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="J205" s="8">
-        <f ca="1">+I205/H205-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K205" s="4" t="s">
@@ -33052,7 +33070,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="206" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
         <v>1046</v>
       </c>
@@ -33063,11 +33081,11 @@
         <f t="array" aca="1" ref="E206" ca="1">+_FV(D206,"Símbolo do ticker",TRUE)</f>
         <v>HAN</v>
       </c>
-      <c r="F206" s="10" t="str" cm="1">
+      <c r="F206" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F206" ca="1">+_FV(D206,"Setor")</f>
         <v>Diversified Retail</v>
       </c>
-      <c r="G206" s="15">
+      <c r="G206" s="11">
         <v>46057</v>
       </c>
       <c r="H206" s="4">
@@ -33078,7 +33096,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="J206" s="8">
-        <f ca="1">+I206/H206-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K206" s="4" t="s">
@@ -33097,7 +33115,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="207" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
         <v>301</v>
       </c>
@@ -33108,11 +33126,11 @@
         <f t="array" aca="1" ref="E207" ca="1">+_FV(D207,"Símbolo do ticker",TRUE)</f>
         <v>SCASM</v>
       </c>
-      <c r="F207" s="10" t="e" cm="1" vm="138">
+      <c r="F207" s="4" t="e" cm="1" vm="138">
         <f t="array" ref="F207">+_FV(D207,"Setor")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G207" s="15">
+      <c r="G207" s="11">
         <v>46057</v>
       </c>
       <c r="H207" s="4" t="e" vm="73">
@@ -33123,7 +33141,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J207" s="8" t="e" vm="74">
-        <f>+I207/H207-1</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="K207" s="4">
@@ -33138,7 +33156,7 @@
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
     </row>
-    <row r="208" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
         <v>1049</v>
       </c>
@@ -33149,11 +33167,11 @@
         <f t="array" aca="1" ref="E208" ca="1">+_FV(D208,"Símbolo do ticker",TRUE)</f>
         <v>YTRA</v>
       </c>
-      <c r="F208" s="10" t="str" cm="1">
+      <c r="F208" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F208" ca="1">+_FV(D208,"Setor")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="G208" s="15">
+      <c r="G208" s="11">
         <v>46057</v>
       </c>
       <c r="H208" s="4">
@@ -33164,7 +33182,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="J208" s="8">
-        <f ca="1">+I208/H208-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K208" s="4" t="s">
@@ -33183,7 +33201,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="209" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
         <v>1052</v>
       </c>
@@ -33194,11 +33212,11 @@
         <f t="array" aca="1" ref="E209" ca="1">+_FV(D209,"Símbolo do ticker",TRUE)</f>
         <v>SPH</v>
       </c>
-      <c r="F209" s="10" t="str" cm="1">
+      <c r="F209" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F209" ca="1">+_FV(D209,"Setor")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="G209" s="15">
+      <c r="G209" s="11">
         <v>46057</v>
       </c>
       <c r="H209" s="4">
@@ -33209,7 +33227,7 @@
         <v>0.245</v>
       </c>
       <c r="J209" s="8">
-        <f ca="1">+I209/H209-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K209" s="4" t="s">
@@ -33228,7 +33246,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="210" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>1055</v>
       </c>
@@ -33239,11 +33257,11 @@
         <f t="array" aca="1" ref="E210" ca="1">+_FV(D210,"Símbolo do ticker",TRUE)</f>
         <v>CITY</v>
       </c>
-      <c r="F210" s="10" t="e" cm="1" vm="138">
+      <c r="F210" s="4" t="e" cm="1" vm="138">
         <f t="array" ref="F210">+_FV(D210,"Setor")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G210" s="15">
+      <c r="G210" s="11">
         <v>46057</v>
       </c>
       <c r="H210" s="4">
@@ -33254,7 +33272,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="J210" s="8">
-        <f ca="1">+I210/H210-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K210" s="4" t="s">
@@ -33269,7 +33287,7 @@
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
     </row>
-    <row r="211" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
         <v>1057</v>
       </c>
@@ -33280,11 +33298,11 @@
         <f t="array" aca="1" ref="E211" ca="1">+_FV(D211,"Símbolo do ticker",TRUE)</f>
         <v>EEP</v>
       </c>
-      <c r="F211" s="10" t="str" cm="1">
+      <c r="F211" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F211" ca="1">+_FV(D211,"Setor")</f>
         <v>Healthcare Providers &amp; Services</v>
       </c>
-      <c r="G211" s="15">
+      <c r="G211" s="11">
         <v>46057</v>
       </c>
       <c r="H211" s="4">
@@ -33295,7 +33313,7 @@
         <v>0.34</v>
       </c>
       <c r="J211" s="8">
-        <f ca="1">+I211/H211-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K211" s="4">
@@ -33314,7 +33332,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="212" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
         <v>1060</v>
       </c>
@@ -33325,11 +33343,11 @@
         <f t="array" aca="1" ref="E212" ca="1">+_FV(D212,"Símbolo do ticker",TRUE)</f>
         <v>SCSS</v>
       </c>
-      <c r="F212" s="10" t="e" cm="1" vm="138">
+      <c r="F212" s="4" t="e" cm="1" vm="138">
         <f t="array" ref="F212">+_FV(D212,"Setor")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G212" s="15">
+      <c r="G212" s="11">
         <v>46057</v>
       </c>
       <c r="H212" s="4">
@@ -33340,7 +33358,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J212" s="8">
-        <f ca="1">+I212/H212-1</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K212" s="4">
@@ -33354,6 +33372,11 @@
       </c>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
+    </row>
+    <row r="213" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>1075</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33362,27 +33385,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83749B-4A18-48E7-8E57-AB7C95D4E31B}">
-  <dimension ref="A2:O15"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94921875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.94921875" style="1"/>
-    <col min="2" max="2" width="32.484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.12109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.87109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.94921875" style="1"/>
-    <col min="9" max="9" width="12.74609375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.01953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33984375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.94921875" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -33423,612 +33446,620 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>46057</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="9" t="e" vm="1">
+      <c r="E3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="F3" s="10" t="str" cm="1">
+      <c r="F3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">+_FV(E3,"Símbolo do ticker",TRUE)</f>
         <v>ITX</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="4">
         <v>56.6</v>
       </c>
-      <c r="H3" s="12" cm="1">
+      <c r="H3" s="7" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">+_FV(E3,"Preço")</f>
         <v>56.6</v>
       </c>
-      <c r="I3" s="13">
-        <f ca="1">+H3/G3-1</f>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I15" ca="1" si="0">+H3/G3-1</f>
         <v>0</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="11">
+    <row r="4" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C4" s="9">
         <v>46057</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="9" t="e" vm="13">
+      <c r="E4" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="F4" s="10" t="str" cm="1">
+      <c r="F4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">+_FV(E4,"Símbolo do ticker",TRUE)</f>
         <v>AMS</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="4">
         <v>53.5</v>
       </c>
-      <c r="H4" s="12" cm="1">
+      <c r="H4" s="7" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">+_FV(E4,"Preço")</f>
         <v>53.5</v>
       </c>
-      <c r="I4" s="13">
-        <f ca="1">+H4/G4-1</f>
+      <c r="I4" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C5" s="11">
+    <row r="5" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C5" s="9">
         <v>46057</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>381</v>
       </c>
-      <c r="E5" s="9" t="e" vm="14">
+      <c r="E5" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="10" t="str" cm="1">
+      <c r="F5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">+_FV(E5,"Símbolo do ticker",TRUE)</f>
         <v>IAG</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <v>4.9980000000000002</v>
       </c>
-      <c r="H5" s="12" cm="1">
+      <c r="H5" s="7" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">+_FV(E5,"Preço")</f>
         <v>4.9980000000000002</v>
       </c>
-      <c r="I5" s="13">
-        <f ca="1">+H5/G5-1</f>
+      <c r="I5" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+    <row r="6" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>46057</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="9" t="e" vm="17">
+      <c r="E6" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="10" t="str" cm="1">
+      <c r="F6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">+_FV(E6,"Símbolo do ticker",TRUE)</f>
         <v>CLNX</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <v>27.73</v>
       </c>
-      <c r="H6" s="12" cm="1">
+      <c r="H6" s="7" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">+_FV(E6,"Preço")</f>
         <v>27.73</v>
       </c>
-      <c r="I6" s="13">
-        <f ca="1">+H6/G6-1</f>
+      <c r="I6" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+    <row r="7" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>1062</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>46057</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="9" t="e" vm="21">
+      <c r="E7" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="10" t="str" cm="1">
+      <c r="F7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">+_FV(E7,"Símbolo do ticker",TRUE)</f>
         <v>ANA</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="4">
         <v>182.3</v>
       </c>
-      <c r="H7" s="12" cm="1">
+      <c r="H7" s="7" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">+_FV(E7,"Preço")</f>
         <v>182.3</v>
       </c>
-      <c r="I7" s="13">
-        <f ca="1">+H7/G7-1</f>
+      <c r="I7" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+    <row r="8" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C8" s="9">
         <v>46057</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>419</v>
       </c>
-      <c r="E8" s="9" t="e" vm="22">
+      <c r="E8" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="10" t="str" cm="1">
+      <c r="F8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">+_FV(E8,"Símbolo do ticker",TRUE)</f>
         <v>PUIG</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="4">
         <v>17.309999999999999</v>
       </c>
-      <c r="H8" s="12" cm="1">
+      <c r="H8" s="7" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">+_FV(E8,"Preço")</f>
         <v>17.309999999999999</v>
       </c>
-      <c r="I8" s="13">
-        <f ca="1">+H8/G8-1</f>
+      <c r="I8" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C9" s="11">
+    <row r="9" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C9" s="9">
         <v>46057</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>459</v>
       </c>
-      <c r="E9" s="9" t="e" vm="32">
+      <c r="E9" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="10" t="str" cm="1">
+      <c r="F9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">+_FV(E9,"Símbolo do ticker",TRUE)</f>
         <v>LOG</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <v>31.76</v>
       </c>
-      <c r="H9" s="12" cm="1">
+      <c r="H9" s="7" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">+_FV(E9,"Preço")</f>
         <v>31.76</v>
       </c>
-      <c r="I9" s="13">
-        <f ca="1">+H9/G9-1</f>
+      <c r="I9" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+    <row r="10" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C10" s="9">
         <v>46057</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="9" t="e" vm="40">
+      <c r="E10" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="10" t="str" cm="1">
+      <c r="F10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">+_FV(E10,"Símbolo do ticker",TRUE)</f>
         <v>VID</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>88.3</v>
       </c>
-      <c r="H10" s="12" cm="1">
+      <c r="H10" s="7" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">+_FV(E10,"Preço")</f>
         <v>88.3</v>
       </c>
-      <c r="I10" s="13">
-        <f ca="1">+H10/G10-1</f>
+      <c r="I10" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+    <row r="11" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>46057</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>513</v>
       </c>
-      <c r="E11" s="9" t="e" vm="45">
+      <c r="E11" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="10" t="str" cm="1">
+      <c r="F11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">+_FV(E11,"Símbolo do ticker",TRUE)</f>
         <v>VIS</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="4">
         <v>56.3</v>
       </c>
-      <c r="H11" s="12" cm="1">
+      <c r="H11" s="7" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">+_FV(E11,"Preço")</f>
         <v>56.3</v>
       </c>
-      <c r="I11" s="13">
-        <f ca="1">+H11/G11-1</f>
+      <c r="I11" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>1065</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>46057</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>679</v>
       </c>
-      <c r="E12" s="9" t="e" vm="92">
+      <c r="E12" t="e" vm="92">
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="10" t="str" cm="1">
+      <c r="F12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">+_FV(E12,"Símbolo do ticker",TRUE)</f>
         <v>EDR</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="4">
         <v>3.355</v>
       </c>
-      <c r="H12" s="12" cm="1">
+      <c r="H12" s="7" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">+_FV(E12,"Preço")</f>
         <v>3.355</v>
       </c>
-      <c r="I12" s="13">
-        <f ca="1">+H12/G12-1</f>
+      <c r="I12" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row r="13" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>1066</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>46057</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>766</v>
       </c>
-      <c r="E13" s="9" t="e" vm="112">
+      <c r="E13" t="e" vm="112">
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="10" t="str" cm="1">
+      <c r="F13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">+_FV(E13,"Símbolo do ticker",TRUE)</f>
         <v>AZK</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>8.66</v>
       </c>
-      <c r="H13" s="12" cm="1">
+      <c r="H13" s="7" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">+_FV(E13,"Preço")</f>
         <v>8.66</v>
       </c>
-      <c r="I13" s="13">
-        <f ca="1">+H13/G13-1</f>
+      <c r="I13" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C14" s="13">
         <v>46057</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E14" s="9" t="e" vm="127">
+      <c r="E14" s="1" t="e" vm="127">
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="10" t="str" cm="1">
+      <c r="F14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">+_FV(E14,"Símbolo do ticker",TRUE)</f>
         <v>NEA</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="3">
         <v>9.68</v>
       </c>
-      <c r="H14" s="12" cm="1">
+      <c r="H14" s="5" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">+_FV(E14,"Preço")</f>
         <v>9.68</v>
       </c>
-      <c r="I14" s="13">
-        <f ca="1">+H14/G14-1</f>
+      <c r="I14" s="6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+    <row r="15" spans="1:15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C15" s="9">
         <v>46057</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>880</v>
       </c>
-      <c r="E15" s="9" t="e" vm="150">
+      <c r="E15" t="e" vm="150">
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="10" t="str" cm="1">
+      <c r="F15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">+_FV(E15,"Símbolo do ticker",TRUE)</f>
         <v>SCO</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>7.15</v>
       </c>
-      <c r="H15" s="12" cm="1">
+      <c r="H15" s="7" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">+_FV(E15,"Preço")</f>
         <v>7.15</v>
       </c>
-      <c r="I15" s="13">
-        <f ca="1">+H15/G15-1</f>
+      <c r="I15" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Screens/Spain.xlsx
+++ b/Screens/Spain.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance_Shared/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="8_{DACE1CD8-BFAD-45DC-B788-5EF46346D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A82EDD-CEEA-47D3-9832-79450373BBFF}"/>
+  <xr:revisionPtr revIDLastSave="1089" documentId="8_{DACE1CD8-BFAD-45DC-B788-5EF46346D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2FDF69-4DB6-4491-9B37-39DEE0C54454}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AFB8188F-5378-4836-AC5C-A12794E7FF25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AFB8188F-5378-4836-AC5C-A12794E7FF25}"/>
   </bookViews>
   <sheets>
     <sheet name="mainn" sheetId="3" r:id="rId1"/>
     <sheet name="screen" sheetId="2" r:id="rId2"/>
+    <sheet name="database" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2184,7 +2185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1344">
   <si>
     <t>Last</t>
   </si>
@@ -5436,6 +5437,786 @@
   </si>
   <si>
     <t>Nice GR / Good Financials/ Diversified</t>
+  </si>
+  <si>
+    <t>Name,"Average Vol. (3m)","Market Cap","Revenue","P/E Ratio","Beta"</t>
+  </si>
+  <si>
+    <t>Inditex,"1.84M","176.61B","39.38B","29.23","0.97"</t>
+  </si>
+  <si>
+    <t>Santander,"21.57M","156.86B","108.11B","12.71","0.96"</t>
+  </si>
+  <si>
+    <t>Airbus Group,"3.85K","149.02B","72.15B","29.55","0.94"</t>
+  </si>
+  <si>
+    <t>Iberdrola,"6.46M","126.64B","45.49B","24.73","0.65"</t>
+  </si>
+  <si>
+    <t>BBVA,"7.96M","124.65B","59.86B","12.66","1.01"</t>
+  </si>
+  <si>
+    <t>PETROBRAS ON,"47.38K","81.08B","0.00","",""</t>
+  </si>
+  <si>
+    <t>PETROBRAS PN,"47.75K","81.08B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Caixabank,"6.01M","80.07B","0.00","13.82","0.10"</t>
+  </si>
+  <si>
+    <t>VALE ON,"7.33K","61.38B","0.00","12.59",""</t>
+  </si>
+  <si>
+    <t>Ferrovial,"705.4K","41.56B","9.35B","11.99","0.76"</t>
+  </si>
+  <si>
+    <t>Aena,"1.18M","40.5B","6.17B","19.67","0.90"</t>
+  </si>
+  <si>
+    <t>Coca-Cola European,"3.34K","36.15B","20.88B","24.25","0.58"</t>
+  </si>
+  <si>
+    <t>ArcelorMittal,"175.48K","36.07B","61.10B","16.65","1.68"</t>
+  </si>
+  <si>
+    <t>BRADESCO PN EJ N1 ,"3.17K","35.37B","0.00","10.28",""</t>
+  </si>
+  <si>
+    <t>Endesa,"708.16K","32.66B","21.12B","15.16","0.65"</t>
+  </si>
+  <si>
+    <t>Grupo Financiero Banorte,"286","26.96B","0.00","9.23",""</t>
+  </si>
+  <si>
+    <t>Centrais Eletricas Brasileiras,"204","26.1B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Naturgy Energy,"1.32M","25.63B","19.93B","12.89","0.45"</t>
+  </si>
+  <si>
+    <t>ACS,"373.25K","23.84B","48.69B","27.36","0.53"</t>
+  </si>
+  <si>
+    <t>Amadeus,"657.04K","23.36B","6.44B","17.65","0.70"</t>
+  </si>
+  <si>
+    <t>IAG,"7.09M","22.84B","33.28B","7.80","1.40"</t>
+  </si>
+  <si>
+    <t>Telefonica,"12.04M","20.55B","41.62B","-19.78","0.24"</t>
+  </si>
+  <si>
+    <t>Repsol,"3.89M","18.26B","48.91B","17.82","0.19"</t>
+  </si>
+  <si>
+    <t>Cellnex Telecom,"1.38M","18.21B","4.10B","-124.91","1.23"</t>
+  </si>
+  <si>
+    <t>Banco de Sabadell,"12.46M","16.94B","0.00","9.34","0.65"</t>
+  </si>
+  <si>
+    <t>Bankinter,"1.53M","13.34B","3.89B","","-0.05"</t>
+  </si>
+  <si>
+    <t>Mapfre,"4.34M","12.09B","30.38B","10.59","0.27"</t>
+  </si>
+  <si>
+    <t>Acciona,"66.97K","9.94B","21.69B","11.93","0.87"</t>
+  </si>
+  <si>
+    <t>Puig Brands,"589.73K","9.45B","4.92B","12.12","0.82"</t>
+  </si>
+  <si>
+    <t>Indra A,"811.69K","8.2B","5.18B","21.36","0.65"</t>
+  </si>
+  <si>
+    <t>Redeia Corporacion,"1.28M","8.15B","1.69B","22.64","0.45"</t>
+  </si>
+  <si>
+    <t>Unicaja Banco,"4.89M","7.26B","2.42B","7.89","0.44"</t>
+  </si>
+  <si>
+    <t>Merlin Properties SA,"862.36K","7.23B","536.47M","10.23","0.97"</t>
+  </si>
+  <si>
+    <t>Corporacion Acciona Energias Renovables,"247.5K","6.99B","4.53B","9.33","0.55"</t>
+  </si>
+  <si>
+    <t>GERDAU PN N1,"2.37K","6.98B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Grifols Pref,"109.69K","6.69B","7.52B","19.56","1.19"</t>
+  </si>
+  <si>
+    <t>Grifols,"1.36M","6.69B","7.52B","19.56","1.19"</t>
+  </si>
+  <si>
+    <t>Energy of Minas Gerais Prf,"6.96K","6B","0.00","",""</t>
+  </si>
+  <si>
+    <t>FCC,"18.55K","5.35B","9.57B","27.44","1.12"</t>
+  </si>
+  <si>
+    <t>Sigma Foods,"726","4.82B","0.00","21.32",""</t>
+  </si>
+  <si>
+    <t>Fluidra,"219.51K","4.78B","2.25B","26.94","1.01"</t>
+  </si>
+  <si>
+    <t>Logista,"197.57K","4.2B","13.54B","14.97","0.50"</t>
+  </si>
+  <si>
+    <t>GGC,"115","4.19B","226.37M","26.40","-0.04"</t>
+  </si>
+  <si>
+    <t>Grupo Elektra,"101","3.82B","0.00","-15.52",""</t>
+  </si>
+  <si>
+    <t>Laborat.Rovi,"102.31K","3.77B","724.20M","31.24","0.15"</t>
+  </si>
+  <si>
+    <t>Enagas,"955.04K","3.72B","949.35M","-11.42","0.35"</t>
+  </si>
+  <si>
+    <t>Cie Automotive,"53.78K","3.48B","3.92B","10.51","0.81"</t>
+  </si>
+  <si>
+    <t>Banco BBVA Argentina,"3.71K","3.33B","0.00","31.38",""</t>
+  </si>
+  <si>
+    <t>Inmobiliaria Colonial,"1.38M","3.27B","519.00M","7.40","1.30"</t>
+  </si>
+  <si>
+    <t>Sacyr,"1.89M","3.18B","4.73B","24.25","0.76"</t>
+  </si>
+  <si>
+    <t>Acerinox,"861.13K","3.13B","5.80B","44.81","1.04"</t>
+  </si>
+  <si>
+    <t>Vidrala,"22.14K","3.1B","1.54B","13.23","0.92"</t>
+  </si>
+  <si>
+    <t>Ebro Foods,"31.46K","2.88B","3.07B","","0.16"</t>
+  </si>
+  <si>
+    <t>MFE MEDIAFOREUROPE A,"10.37K","2.79B","2.88B","13.60","1.10"</t>
+  </si>
+  <si>
+    <t>Almirall,"167.08K","2.78B","1.09B","66.34","0.17"</t>
+  </si>
+  <si>
+    <t>Aperam,"1.69K","2.61B","6.19B","-327.19","1.59"</t>
+  </si>
+  <si>
+    <t>Grenergy Renovables SA,"43.03K","2.59B","1.05B","26.26","1.73"</t>
+  </si>
+  <si>
+    <t>Viscofan,"77.64K","2.58B","1.24B","16.21","0.163"</t>
+  </si>
+  <si>
+    <t>Cirsa Enterprises,"126.56K","2.39B","2.30B","24.54",""</t>
+  </si>
+  <si>
+    <t>Tecnicas Reunidas,"123.88K","2.36B","5.83B","17.73","1.08"</t>
+  </si>
+  <si>
+    <t>DIA,"36.95K","2.25B","5.86B","58.81","0.84"</t>
+  </si>
+  <si>
+    <t>Elecnor,"118.52K","2.24B","4.10B","-24.17","0.79"</t>
+  </si>
+  <si>
+    <t>Solaria,"921.96K","2.17B","311.99M","12.56","1.35"</t>
+  </si>
+  <si>
+    <t>Neinor Homes,"120.56K","1.99B","462.55M","27.21","0.24"</t>
+  </si>
+  <si>
+    <t>HBX International,"333.23K","1.92B","720.00M","-25.13",""</t>
+  </si>
+  <si>
+    <t>Construcciones y Auxiliar,"32.84K","1.91B","4.47B","13.48","0.90"</t>
+  </si>
+  <si>
+    <t>Gestamp Automocion,"269.15K","1.78B","11.67B","11.43","0.99"</t>
+  </si>
+  <si>
+    <t>Inmocemento,"19.1K","1.77B","953.35M","5.13",""</t>
+  </si>
+  <si>
+    <t>Melia Hotels,"219.72K","1.7B","2.08B","10.05","0.97"</t>
+  </si>
+  <si>
+    <t>Faes Farma,"135.76K","1.63B","571.12M","15.57","0.19"</t>
+  </si>
+  <si>
+    <t>Realia,"29.81K","1.59B","134.96M","19.32","0.14"</t>
+  </si>
+  <si>
+    <t>Metrovacesa,"208.63K","1.57B","555.25M","-455.95","0.84"</t>
+  </si>
+  <si>
+    <t>BRADESPAR PN,"1.55K","1.52B","0.00","",""</t>
+  </si>
+  <si>
+    <t>BRADESPAR ON,"1.43K","1.52B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Prosegur,"240.17K","1.5B","5.00B","11.81","1.02"</t>
+  </si>
+  <si>
+    <t>Arteche Lantegi Elkartea,"16.42K","1.4B","485.43M","29.98","0.39"</t>
+  </si>
+  <si>
+    <t>Pharma Mar,"35.15K","1.33B","179.28M","39.78","0.25"</t>
+  </si>
+  <si>
+    <t>USIMINAS PNA,"8.39K","1.31B","0.00","",""</t>
+  </si>
+  <si>
+    <t>USIMINAS ON,"2.04K","1.31B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Linea Directa Aseguradora,"582.21K","1.27B","1.16B","14.63","0.29"</t>
+  </si>
+  <si>
+    <t>GMP Property,"5","1.23B","125.78M","6.35","-0.01"</t>
+  </si>
+  <si>
+    <t>BRASKEM PNA,"2.61K","1.17B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Atresmedia,"367.54K","1.17B","902.39M","10.20","0.76"</t>
+  </si>
+  <si>
+    <t>Volcan Cmp Min,"66.8K","1.16B","0.00","",""</t>
+  </si>
+  <si>
+    <t>Aedas Homes,"48.77K","1.04B","1.20B","8.18","0.83"</t>
+  </si>
+  <si>
+    <t>Castellana Properties,"541","1.02B","153.18M","8.93","0.08"</t>
+  </si>
+  <si>
+    <t>Vivenio Residencial,"1K","995.57M","69.45M","11.26",""</t>
+  </si>
+  <si>
+    <t>Prosegur Cash,"1.04M","944.93M","2.06B","10.69","0.54"</t>
+  </si>
+  <si>
+    <t>Clinica Baviera,"3.29K","826.22M","296.76M","20.41","0.74"</t>
+  </si>
+  <si>
+    <t>Cox Abg,"9.99K","803.07M","981.46M","57.42",""</t>
+  </si>
+  <si>
+    <t>Renta 4 Banco,"3.07K","777.24M","257.60M","19.69","0.17"</t>
+  </si>
+  <si>
+    <t>Helios RE,"64.21K","694.65M","97.03M","11.22","0.72"</t>
+  </si>
+  <si>
+    <t>Amrest,"29.93K","690.31M","2.59B","30.85","0.53"</t>
+  </si>
+  <si>
+    <t>Audax Renovables,"356.61K","595.73M","1.97B","16.36","1.47"</t>
+  </si>
+  <si>
+    <t>Zambal Spain Socimi SA,"630","587.39M","62.92M","22.75","0.08"</t>
+  </si>
+  <si>
+    <t>EBRO EV,"5.25K","581.39M","43.96M","-16.81","0.37"</t>
+  </si>
+  <si>
+    <t>Empresarial San Jose,"57.34K","555.32M","1.56B","14.83","0.83"</t>
+  </si>
+  <si>
+    <t>ENCE,"414.02K","554.18M","783.52M","-18.00","0.20"</t>
+  </si>
+  <si>
+    <t>Miquel Cost.,"7.43K","533.48M","315.11M","11.54","0.26"</t>
+  </si>
+  <si>
+    <t>Global Dominion,"202.29K","517.39M","1.21B","18.25","0.74"</t>
+  </si>
+  <si>
+    <t>Atom Hoteles,"855","506.9M","63.62M","5.16","0.15"</t>
+  </si>
+  <si>
+    <t>OHL,"6.03M","494.91M","3.57B","-11.66","1.17"</t>
+  </si>
+  <si>
+    <t>Altia Consultores S.A.,"3.29K","487.25M","255.78M","31.56","0.14"</t>
+  </si>
+  <si>
+    <t>Promotora Informaciones,"75.19K","463.51M","888.46M","-20.24","0.74"</t>
+  </si>
+  <si>
+    <t>Tubacex,"296.91K","421.87M","733.85M","13.05","1.01"</t>
+  </si>
+  <si>
+    <t>Nueva Expresion,"1.2M","411.36M","30.64M","83.72","0.75"</t>
+  </si>
+  <si>
+    <t>Testa Residencial,"18","410.74M","109.70M","28.36","-0.01"</t>
+  </si>
+  <si>
+    <t>Amper,"11.92M","407.43M","384.49M","27.18","0.72"</t>
+  </si>
+  <si>
+    <t>Talgo,"198.56K","389.8M","596.60M","-1.95","1.35"</t>
+  </si>
+  <si>
+    <t>Fidere Patrimonio SOCIMI SA,"149","381.32M","52.95M","-44.75","-0.06"</t>
+  </si>
+  <si>
+    <t>eDreams Odigeo SA,"712.75K","369.97M","687.11M","5.44","1.37"</t>
+  </si>
+  <si>
+    <t>Alantra Partners,"23.73K","340.92M","207.77M","26.87","0.48"</t>
+  </si>
+  <si>
+    <t>Hotei Properties,"10.09K","335.84M","29.83M","5.80","-0.16"</t>
+  </si>
+  <si>
+    <t>Izertis,"13.38K","332.21M","147.25M","53.67","-0.08"</t>
+  </si>
+  <si>
+    <t>Saint Croix Holding Immobilier,"427","320.56M","39.88M","14.93",""</t>
+  </si>
+  <si>
+    <t>Ercros,"101.33K","313.17M","645.40M","-6.87","0.39"</t>
+  </si>
+  <si>
+    <t>Natac Natural Ingredients,"40.82K","302.13M","35.71M","1,000.00","-0.41"</t>
+  </si>
+  <si>
+    <t>Inmobiliaria del Sur,"3.47K","293.39M","216.09M","9.91","0.28"</t>
+  </si>
+  <si>
+    <t>Grupo Ecoener,"11.09K","284.64M","82.76M","26.06","0.68"</t>
+  </si>
+  <si>
+    <t>Silicius Real Estate SOCIMI,"100","280.66M","32.74M","-40.63","-0.04"</t>
+  </si>
+  <si>
+    <t>Soltec Power,"2.57M","267.09M","214.53M","","1.86"</t>
+  </si>
+  <si>
+    <t>Secuoya Grupo de Comunicacion S.A.,"92","255.05M","123.55M","30.53","0.11"</t>
+  </si>
+  <si>
+    <t>Oryzon Genomics,"557.69K","250.75M","8.63M","-73.84","0.41"</t>
+  </si>
+  <si>
+    <t>Arima Real Estate,"454","247.79M","12.19M","-15.29","0.09"</t>
+  </si>
+  <si>
+    <t>Vitruvio Real Estate,"7.46K","245.6M","9.85M","34.41","0.01"</t>
+  </si>
+  <si>
+    <t>IRG10 SOCIMI,"286","237.75M","23.71M","22.23","0.09"</t>
+  </si>
+  <si>
+    <t>Cox Energy America,"2.22K","236.26M","8.99B","38.56","0.06"</t>
+  </si>
+  <si>
+    <t>Squirrel Media,"41.3K","231.19M","184.53M","","0.59"</t>
+  </si>
+  <si>
+    <t>Iberpapel Gestion,"5.78K","228.93M","222.96M","17.73","0.44"</t>
+  </si>
+  <si>
+    <t>Laboratorio Reig Jofre,"29.41K","224.64M","330.34M","52.68","1.05"</t>
+  </si>
+  <si>
+    <t>Atrys Health,"82.69K","221.55M","226.24M","-9.19","0.64"</t>
+  </si>
+  <si>
+    <t>All Iron Re,"1.05K","220.69M","7.59M","15.99","0.21"</t>
+  </si>
+  <si>
+    <t>Aplicaciones y Tratamientos de Sistemas,"1.25K","218.47M","185.73M","30.56","-0.56"</t>
+  </si>
+  <si>
+    <t>Prim,"4.1K","216.1M","240.68M","14.94","0.52"</t>
+  </si>
+  <si>
+    <t>JSS RE,"17.24K","212.45M","19.69M","1.93","-0.10"</t>
+  </si>
+  <si>
+    <t>Azkoyen,"4.57K","211.14M","201.12M","10.98","0.49"</t>
+  </si>
+  <si>
+    <t>Trivium RE,"123","202.64M","39.74M","21.79",""</t>
+  </si>
+  <si>
+    <t>Indexa Capital,"836","190.36M","6.74M","205.66","0.42"</t>
+  </si>
+  <si>
+    <t>Ores Socimi,"6.47K","187.65M","24.01M","32.89","0.09"</t>
+  </si>
+  <si>
+    <t>Viviendas en Alquiler,"609","180.64M","46.39M","8.40","0.02"</t>
+  </si>
+  <si>
+    <t>Bytetravel,"743","161.91M","10.84M","47.91","-0.29"</t>
+  </si>
+  <si>
+    <t>La Finca Global Assets Socimi,"827","159.49M","51.96M","22.63","-0.21"</t>
+  </si>
+  <si>
+    <t>Inversiones Doalca,"189","156.64M","11.64M","21.78","-0.02"</t>
+  </si>
+  <si>
+    <t>Airtificial Intelligence,"1.63M","152.47M","112.38M","-28.82","1.61"</t>
+  </si>
+  <si>
+    <t>Berkeley Energy,"1.29M","151.84M","0.00","-45.08","1.37"</t>
+  </si>
+  <si>
+    <t>Naturhouse Health SA,"65.52K","145.08M","47.81M","15.00","0.27"</t>
+  </si>
+  <si>
+    <t>General Alquiler Maquinaria,"19.91K","143.66M","312.81M","28.15","0.67"</t>
+  </si>
+  <si>
+    <t>Adriano Care SOCIMI,"603","124.48M","17.41M","11.24","-0.06"</t>
+  </si>
+  <si>
+    <t>Isc Fresh Water,"263","124.45M","26.75M","10.86","-0.04"</t>
+  </si>
+  <si>
+    <t>Torimbia,"185","121.83M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Deoleo,"819.99K","120M","924.35M","-3.23","0.73"</t>
+  </si>
+  <si>
+    <t>Tempore Properties,"2.25K","117.88M","3.11M","-57.54","0.02"</t>
+  </si>
+  <si>
+    <t>Nicolas Correa,"4.55K","117.67M","119.39M","9.02","0.48"</t>
+  </si>
+  <si>
+    <t>Tander Inversiones SOCIMI,"428","113.43M","7.89M","62.55","-0.02"</t>
+  </si>
+  <si>
+    <t>Aeternal Mentis,"10","112.52M","2.24K","-58.82","-0.10"</t>
+  </si>
+  <si>
+    <t>Grupo Greening 2022,"7.13K","112.31M","0.00","-10.18","-0.38"</t>
+  </si>
+  <si>
+    <t>Clerhp Estructuras,"35.49K","111.47M","15.61M","-243.58","0.78"</t>
+  </si>
+  <si>
+    <t>AM Locales Property,"600","107.42M","8.52M","297.65","-0.03"</t>
+  </si>
+  <si>
+    <t>Singular People SL,"8.56K","107.09M","115.66M","","0.16"</t>
+  </si>
+  <si>
+    <t>Entre Cua Socimi,"592","102.48M","7.53M","54.22","0.09"</t>
+  </si>
+  <si>
+    <t>Gop Properties,"652","100.73M","12.64M","12.39","-0.08"</t>
+  </si>
+  <si>
+    <t>Hispanotels Inversiones SOCIMI,"285","100.51M","8.82M","10.54","-0.13"</t>
+  </si>
+  <si>
+    <t>Serrano 61 Desarrollo,"54","98.66M","4.91M","-52.11","0.01"</t>
+  </si>
+  <si>
+    <t>Urbas Grupo,"19.56M","98.11M","171.09M","-0.70","-0.64"</t>
+  </si>
+  <si>
+    <t>Meridia RE III,"67","98.07M","26.32M","-9.40","0.33"</t>
+  </si>
+  <si>
+    <t>ADVERO Properties Socimi,"261","97.8M","3.65M","","0.06"</t>
+  </si>
+  <si>
+    <t>Veracruz Socimi,"400","88.74M","12.20M","21.71","-0.01"</t>
+  </si>
+  <si>
+    <t>IBI Lion,"750","86.48M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Santa Ana Global Enterprises,"94","84.77M","0.00","-66.29","-0.35"</t>
+  </si>
+  <si>
+    <t>Axon Partners,"417","83.33M","14.76M","17.17","-0.24"</t>
+  </si>
+  <si>
+    <t>Vytrus Biotech,"15.45K","82.77M","8.09M","45.69","0.03"</t>
+  </si>
+  <si>
+    <t>Llorente Cuenca Madrid SA,"1.25K","79.11M","95.87M","14.17","0.42"</t>
+  </si>
+  <si>
+    <t>Making Science,"2.67K","77.72M","314.94M","-19.81","1.18"</t>
+  </si>
+  <si>
+    <t>Libertas 7,"6.65K","77.63M","12.75M","20.66","0.49"</t>
+  </si>
+  <si>
+    <t>Vocento,"52.53K","77.1M","340.56M","-0.79","0.80"</t>
+  </si>
+  <si>
+    <t>TV Azteca Cpo,"1","72.95M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Inversa Prime,"6.25K","72.75M","3.45M","12.21","-0.13"</t>
+  </si>
+  <si>
+    <t>Umbrella Solar Investment,"2.3K","71.81M","17.33M","-14.19","0.22"</t>
+  </si>
+  <si>
+    <t>Energy Solar Tech,"11.86K","70.05M","0.00","161.59","1.62"</t>
+  </si>
+  <si>
+    <t>Alquiber Quality,"399","68.11M","153.25M","15.24","-0.20"</t>
+  </si>
+  <si>
+    <t>MilePro Logistica Ultima Milla,"205","66.22M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Seresco,"2.93K","66M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Optimum Re Spain,"1","64.63M","197.11K","-12.66",""</t>
+  </si>
+  <si>
+    <t>Energia Innovacion y Desarrollo Fotovoltaico,"88.35K","64.07M","97.78M","-1.32","0.36"</t>
+  </si>
+  <si>
+    <t>Facephi Biometria SA,"17.33K","63.16M","34.38M","-8.06","1.33"</t>
+  </si>
+  <si>
+    <t>Arrienda Rental,"150","58.02M","4.48M","26.18","-0.02"</t>
+  </si>
+  <si>
+    <t>Lingotes,"5.55K","58M","86.70M","76.12","0.92"</t>
+  </si>
+  <si>
+    <t>Montebalito,"4.08K","56.96M","12.90M","36.25","0.27"</t>
+  </si>
+  <si>
+    <t>Pangaea Oncology,"1.56K","56.69M","14.35M","-9.96","0.08"</t>
+  </si>
+  <si>
+    <t>Inbest GPF Multi Asset Class Prime,"3.5M","55.66M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Adolfo Dominguez,"3.02K","54.44M","139.82M","33.77","0.29"</t>
+  </si>
+  <si>
+    <t>Inbest Prime I Inmuebles SOCIMI,"5.64K","51.69M","19.97K","-1,928.93","0.07"</t>
+  </si>
+  <si>
+    <t>Techo Hogar,"55.09K","51.61M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Grupo Ezentis SA,"1.93M","49.86M","20.83M","-12.26","1.93"</t>
+  </si>
+  <si>
+    <t>Parlem Telecom Companyia de Telecomunicacions,"6.59K","49.29M","50.59M","-28.51","0.41"</t>
+  </si>
+  <si>
+    <t>Gigas Hosting SA,"14.3K","48.79M","79.43M","-108.99","0.46"</t>
+  </si>
+  <si>
+    <t>Agile Content SA,"34.48K","48M","84.56M","26.00","0.75"</t>
+  </si>
+  <si>
+    <t>Inbest Prime IV Inmuebles SOCIMI,"500","47.03M","68.65K","-2,114.54","0.01"</t>
+  </si>
+  <si>
+    <t>Tubos Reunid,"1M","45.9M","357.09M","-1.14","1.05"</t>
+  </si>
+  <si>
+    <t>Enerside Energy,"22.82K","43.61M","2.68M","-3.11","0.46"</t>
+  </si>
+  <si>
+    <t>AP 67 SOCIMI,"827","41.7M","4.55M","32.32","-0.02"</t>
+  </si>
+  <si>
+    <t>Soluciones Cuatroochenta,"2.07K","40.44M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Ktesios RE,"439","39.65M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Duro Felguera,"389.13K","38.95M","254.08M","-0.54","1.04"</t>
+  </si>
+  <si>
+    <t>Home Capital Rentals SOCIMI,"630","37.22M","0.00","",""</t>
+  </si>
+  <si>
+    <t>NBI Bearings Europe,"6.34K","37.19M","50.63M","-58.94","0.31"</t>
+  </si>
+  <si>
+    <t>Jaba I Inversiones,"5.85K","36.59M","2.12M","54.57","0.01"</t>
+  </si>
+  <si>
+    <t>Quonia SOCIMI,"5.43K","34.73M","3.83M","","0.09"</t>
+  </si>
+  <si>
+    <t>Barcino Property,"41.15K","33.88M","2.20M","9.76","0.07"</t>
+  </si>
+  <si>
+    <t>Desarrollos Especiales de Sistemas de Anclajes,"492","33.47M","48.02M","11.27","0.10"</t>
+  </si>
+  <si>
+    <t>Endurance Motive,"21.26K","33.21M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Innovative Solutions Ecosystem,"301","32.54M","13.00K","-40.87","0.15"</t>
+  </si>
+  <si>
+    <t>Prevision Sanitaria,"705","31.35M","2.38M","33.62","0.05"</t>
+  </si>
+  <si>
+    <t>Inhome Prime Properties,"204","30.53M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Labiana Health,"1.92K","30.36M","71.67M","36.97","-0.40"</t>
+  </si>
+  <si>
+    <t>Numulae Gestion de Servicios,"10.06K","29.45M","6.24M","-90.45","-0.09"</t>
+  </si>
+  <si>
+    <t>Grino Ecologic S.A.,"1.44K","29.14M","68.68M","10.39","-0.02"</t>
+  </si>
+  <si>
+    <t>Holaluz Clidom,"16.94K","28.52M","197.96M","-0.60","-0.07"</t>
+  </si>
+  <si>
+    <t>Optare Solutions,"418","26.6M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Inmobiliaria Park Rose,"3.29K","26.36M","1.93M","44.19","0.01"</t>
+  </si>
+  <si>
+    <t>Renta Corp,"31.67K","25.15M","30.17M","7.61","0.95"</t>
+  </si>
+  <si>
+    <t>Inbest Prime III Inmuebles,"5.03K","24.59M","51.10K","-683.23","0.04"</t>
+  </si>
+  <si>
+    <t>Inbest Prime II Inmuebles,"5.05K","24.55M","2.35K","-575.79","0.03"</t>
+  </si>
+  <si>
+    <t>Nyesa Valores,"48.77M","24.39M","6.81M","-0.82","0.97"</t>
+  </si>
+  <si>
+    <t>Mistral Iberia RE,"1.49K","22.87M","3.66M","7.18","0.07"</t>
+  </si>
+  <si>
+    <t>VBARE Iberian Properties,"20","22.09M","3.04M","38.13","-0.31"</t>
+  </si>
+  <si>
+    <t>Matritense RE,"200","20.48M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Grandvoyage Travel SL,"1.67K","19.97M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Lleidanetworks Serveis Telematics,"23.67K","19.34M","20.66M","13.10","0.98"</t>
+  </si>
+  <si>
+    <t>Catenon S.A.,"11.92K","18.99M","13.06M","18.67","0.89"</t>
+  </si>
+  <si>
+    <t>Nzi Technical Protection SL,"2.19K","18.18M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Iflex Flexible Packaging,"2.11K","17.9M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Redegal SL,"640","15.68M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Tree Tech,"4.85K","14.97M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Inbest Prime VII Inmuebles,"5.04K","14.85M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Biotechnology Assets,"426.49K","14.48M","3.05M","-5.36","2.24"</t>
+  </si>
+  <si>
+    <t>Domo Activos,"7.46K","13.79M","25.00K","","0.03"</t>
+  </si>
+  <si>
+    <t>Substrate Artificial Inteligence,"9.89K","12.39M","19.60M","1.39","0.45"</t>
+  </si>
+  <si>
+    <t>Substrate Artificial Inteligence,"1.96M","12.39M","19.60M","1.39","0.45"</t>
+  </si>
+  <si>
+    <t>Asturiana de Laminados,"286.22K","11.9M","89.57M","-1.50","0.76"</t>
+  </si>
+  <si>
+    <t>Media Investment Optimization SL,"17.77K","11.58M","58.65M","-3.22","0.08"</t>
+  </si>
+  <si>
+    <t>Bodegas Riojanas,"7.53K","11.23M","15.49M","-5.25",""</t>
+  </si>
+  <si>
+    <t>Greenoak Spain Holdings Socimi II,"49","10.95M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Elaia Investment Spain Socimi,"1.35K","10.05M","4.36M","","0.05"</t>
+  </si>
+  <si>
+    <t>CommCenter,"463","9.55M","60.55M","7.67","-0.35"</t>
+  </si>
+  <si>
+    <t>Better Consultants,"110","9.4M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Plasticos Compuestos,"3.83K","9.36M","47.82M","-189.68","0.23"</t>
+  </si>
+  <si>
+    <t>Nextpoint Capital,"995","9.34M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Robot,"1.14K","8.58M","8.14M","8.33","0.02"</t>
+  </si>
+  <si>
+    <t>Revenga Ingenieros,"5.52K","8.29M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Vanadi Coffee,"2.03M","7.95M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Pescanova,"71.43K","7.93M","313.00K","-12.16","0.40"</t>
+  </si>
+  <si>
+    <t>Hannun,"35.91K","6.97M","7.26M","-2.39","-0.09"</t>
+  </si>
+  <si>
+    <t>Alquiler Seguro Asset Market,"0","5.03M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Trajano Iberia,"1.28K","4.93M","19.12M","1.13","0.40"</t>
+  </si>
+  <si>
+    <t>Profithol SA,"15.38K","4.83M","14.12M","0.34","0.75"</t>
+  </si>
+  <si>
+    <t>Intercity Sad,"1.93M","4.02M","0.00","",""</t>
+  </si>
+  <si>
+    <t>Euroespes S.A.,"188","3.91M","3.09M","-1.83","-0.23"</t>
+  </si>
+  <si>
+    <t>Innovative Simply Solar,"593","0","0.00","",""</t>
   </si>
 </sst>
 </file>
@@ -5550,6 +6331,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32621,7 +33406,7 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="J195" s="8">
-        <f t="shared" ref="J195:J258" ca="1" si="3">+I195/H195-1</f>
+        <f t="shared" ref="J195:J212" ca="1" si="3">+I195/H195-1</f>
         <v>0</v>
       </c>
       <c r="K195" s="4" t="s">
@@ -33387,7 +34172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83749B-4A18-48E7-8E57-AB7C95D4E31B}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -34064,4 +34849,1317 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A84A9-4F8F-444C-BCCE-8A9013E66D32}">
+  <dimension ref="A1:A260"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>